--- a/TLPR21_Raw_Master.xlsx
+++ b/TLPR21_Raw_Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DFB6C1-D60A-BC48-B95B-58AC4A60673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A259DA5-C000-F544-8CC6-CCD411343459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="24820" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="368">
   <si>
     <t>Species</t>
   </si>
@@ -578,9 +578,6 @@
     <t>15OFA1ML</t>
   </si>
   <si>
-    <t>15OFA2ML was counted twice, so one might be this one</t>
-  </si>
-  <si>
     <t>15OFA2ML</t>
   </si>
   <si>
@@ -1140,6 +1137,9 @@
   </si>
   <si>
     <t>Colony_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1333,13 +1333,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
   <dimension ref="A1:V833"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1685,32 +1685,32 @@
     <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="31" customFormat="1" ht="34">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="34">
+      <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -6213,12 +6213,10 @@
       <c r="H128" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="I128" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J128" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="I128" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J128" s="31"/>
       <c r="K128" s="7"/>
       <c r="N128" s="7"/>
       <c r="U128" s="7"/>
@@ -6246,14 +6244,12 @@
         <v>41</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I129" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J129" s="6" t="s">
-        <v>366</v>
-      </c>
+      <c r="J129" s="6"/>
       <c r="K129" s="7"/>
       <c r="N129" s="7"/>
       <c r="U129" s="7"/>
@@ -6281,7 +6277,7 @@
         <v>41</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I130" s="19" t="s">
         <v>43</v>
@@ -6314,7 +6310,7 @@
         <v>41</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I131" s="19" t="s">
         <v>43</v>
@@ -6347,7 +6343,7 @@
         <v>41</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I132" s="19" t="s">
         <v>43</v>
@@ -6380,7 +6376,7 @@
         <v>41</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I133" s="19" t="s">
         <v>43</v>
@@ -6413,13 +6409,15 @@
         <v>41</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I134" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J134" s="6"/>
-      <c r="K134" s="7"/>
+      <c r="K134" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="N134" s="7"/>
       <c r="U134" s="7"/>
     </row>
@@ -6446,7 +6444,7 @@
         <v>41</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I135" s="19" t="s">
         <v>43</v>
@@ -6479,7 +6477,7 @@
         <v>41</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I136" s="19" t="s">
         <v>43</v>
@@ -6521,7 +6519,7 @@
         <v>41</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I137" s="19" t="s">
         <v>43</v>
@@ -6554,7 +6552,7 @@
         <v>41</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I138" s="19" t="s">
         <v>43</v>
@@ -6587,7 +6585,7 @@
         <v>41</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I139" s="19" t="s">
         <v>43</v>
@@ -6620,7 +6618,7 @@
         <v>41</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I140" s="19" t="s">
         <v>43</v>
@@ -6653,7 +6651,7 @@
         <v>41</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I141" s="19" t="s">
         <v>43</v>
@@ -6686,7 +6684,7 @@
         <v>41</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I142" s="19" t="s">
         <v>43</v>
@@ -6719,7 +6717,7 @@
         <v>41</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I143" s="19" t="s">
         <v>43</v>
@@ -6749,7 +6747,7 @@
         <v>41</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I144" s="19" t="s">
         <v>43</v>
@@ -6781,7 +6779,7 @@
         <v>41</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I145" s="19" t="s">
         <v>43</v>
@@ -6812,7 +6810,7 @@
         <v>41</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I146" s="19" t="s">
         <v>43</v>
@@ -6844,7 +6842,7 @@
         <v>41</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I147" s="19" t="s">
         <v>43</v>
@@ -6875,7 +6873,7 @@
         <v>41</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I148" s="19" t="s">
         <v>43</v>
@@ -6907,7 +6905,7 @@
         <v>42</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I149" s="19" t="s">
         <v>43</v>
@@ -6936,7 +6934,7 @@
         <v>42</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I150" s="19" t="s">
         <v>43</v>
@@ -6965,7 +6963,7 @@
         <v>42</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I151" s="19" t="s">
         <v>43</v>
@@ -6994,7 +6992,7 @@
         <v>42</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I152" s="19" t="s">
         <v>43</v>
@@ -7023,7 +7021,7 @@
         <v>42</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I153" s="19" t="s">
         <v>43</v>
@@ -7052,7 +7050,7 @@
         <v>42</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I154" s="19" t="s">
         <v>43</v>
@@ -7081,7 +7079,7 @@
         <v>42</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I155" s="19" t="s">
         <v>43</v>
@@ -7110,7 +7108,7 @@
         <v>42</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I156" s="19" t="s">
         <v>43</v>
@@ -7139,7 +7137,7 @@
         <v>42</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I157" s="19" t="s">
         <v>43</v>
@@ -7168,7 +7166,7 @@
         <v>42</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I158" s="19" t="s">
         <v>43</v>
@@ -7197,7 +7195,7 @@
         <v>42</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I159" s="19" t="s">
         <v>43</v>
@@ -7226,7 +7224,7 @@
         <v>42</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I160" s="19" t="s">
         <v>43</v>
@@ -7255,7 +7253,7 @@
         <v>42</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I161" s="19" t="s">
         <v>43</v>
@@ -7284,7 +7282,7 @@
         <v>42</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I162" s="19" t="s">
         <v>43</v>
@@ -7313,7 +7311,7 @@
         <v>42</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I163" s="19" t="s">
         <v>43</v>
@@ -7342,7 +7340,7 @@
         <v>42</v>
       </c>
       <c r="H164" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I164" s="19" t="s">
         <v>43</v>
@@ -7371,7 +7369,7 @@
         <v>42</v>
       </c>
       <c r="H165" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I165" s="19" t="s">
         <v>43</v>
@@ -7400,7 +7398,7 @@
         <v>42</v>
       </c>
       <c r="H166" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I166" s="19" t="s">
         <v>43</v>
@@ -7429,7 +7427,7 @@
         <v>42</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I167" s="19" t="s">
         <v>43</v>
@@ -7458,7 +7456,7 @@
         <v>42</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I168" s="19" t="s">
         <v>43</v>
@@ -7487,7 +7485,7 @@
         <v>42</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I169" s="19" t="s">
         <v>43</v>
@@ -7495,7 +7493,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B170" s="16">
         <v>44420</v>
@@ -7516,7 +7514,7 @@
         <v>42</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I170" s="19" t="s">
         <v>43</v>
@@ -7524,7 +7522,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B171" s="16">
         <v>44420</v>
@@ -7545,7 +7543,7 @@
         <v>42</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>43</v>
@@ -7574,7 +7572,7 @@
         <v>41</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>43</v>
@@ -7603,7 +7601,7 @@
         <v>41</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>43</v>
@@ -7632,7 +7630,7 @@
         <v>41</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>43</v>
@@ -7661,7 +7659,7 @@
         <v>41</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>43</v>
@@ -7690,7 +7688,7 @@
         <v>41</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>43</v>
@@ -7719,7 +7717,7 @@
         <v>41</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>43</v>
@@ -7748,7 +7746,7 @@
         <v>41</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I178" s="19" t="s">
         <v>43</v>
@@ -7777,7 +7775,7 @@
         <v>41</v>
       </c>
       <c r="H179" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>43</v>
@@ -7806,7 +7804,7 @@
         <v>41</v>
       </c>
       <c r="H180" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>43</v>
@@ -7835,7 +7833,7 @@
         <v>41</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>43</v>
@@ -7864,7 +7862,7 @@
         <v>41</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>43</v>
@@ -7893,7 +7891,7 @@
         <v>41</v>
       </c>
       <c r="H183" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>43</v>
@@ -7922,7 +7920,7 @@
         <v>41</v>
       </c>
       <c r="H184" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>43</v>
@@ -7951,7 +7949,7 @@
         <v>41</v>
       </c>
       <c r="H185" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>43</v>
@@ -7980,7 +7978,7 @@
         <v>41</v>
       </c>
       <c r="H186" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I186" s="19" t="s">
         <v>43</v>
@@ -8009,7 +8007,7 @@
         <v>41</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I187" s="19" t="s">
         <v>43</v>
@@ -8038,7 +8036,7 @@
         <v>41</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I188" s="19" t="s">
         <v>43</v>
@@ -8067,7 +8065,7 @@
         <v>41</v>
       </c>
       <c r="H189" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I189" s="19" t="s">
         <v>43</v>
@@ -8096,7 +8094,7 @@
         <v>41</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I190" s="19" t="s">
         <v>43</v>
@@ -8125,7 +8123,7 @@
         <v>41</v>
       </c>
       <c r="H191" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I191" s="19" t="s">
         <v>43</v>
@@ -8154,7 +8152,7 @@
         <v>42</v>
       </c>
       <c r="H192" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I192" s="19" t="s">
         <v>43</v>
@@ -8183,10 +8181,10 @@
         <v>42</v>
       </c>
       <c r="H193" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I193" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="I193" s="21" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -8212,7 +8210,7 @@
         <v>42</v>
       </c>
       <c r="H194" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I194" s="19" t="s">
         <v>43</v>
@@ -8241,13 +8239,13 @@
         <v>42</v>
       </c>
       <c r="H195" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I195" s="26" t="s">
         <v>43</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -8273,7 +8271,7 @@
         <v>42</v>
       </c>
       <c r="H196" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I196" s="19" t="s">
         <v>43</v>
@@ -8302,7 +8300,7 @@
         <v>42</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I197" s="19" t="s">
         <v>43</v>
@@ -8331,7 +8329,7 @@
         <v>42</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I198" s="19" t="s">
         <v>43</v>
@@ -8360,7 +8358,7 @@
         <v>42</v>
       </c>
       <c r="H199" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I199" s="19" t="s">
         <v>43</v>
@@ -8389,7 +8387,7 @@
         <v>42</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I200" s="19" t="s">
         <v>43</v>
@@ -8418,7 +8416,7 @@
         <v>42</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I201" s="19" t="s">
         <v>43</v>
@@ -8447,7 +8445,7 @@
         <v>42</v>
       </c>
       <c r="H202" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I202" s="19" t="s">
         <v>43</v>
@@ -8476,7 +8474,7 @@
         <v>42</v>
       </c>
       <c r="H203" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I203" s="19" t="s">
         <v>43</v>
@@ -8505,7 +8503,7 @@
         <v>42</v>
       </c>
       <c r="H204" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I204" s="19" t="s">
         <v>43</v>
@@ -8534,7 +8532,7 @@
         <v>42</v>
       </c>
       <c r="H205" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I205" s="19" t="s">
         <v>43</v>
@@ -8563,7 +8561,7 @@
         <v>42</v>
       </c>
       <c r="H206" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I206" s="19" t="s">
         <v>43</v>
@@ -8592,7 +8590,7 @@
         <v>42</v>
       </c>
       <c r="H207" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I207" s="19" t="s">
         <v>43</v>
@@ -8621,7 +8619,7 @@
         <v>42</v>
       </c>
       <c r="H208" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I208" s="19" t="s">
         <v>43</v>
@@ -8650,7 +8648,7 @@
         <v>42</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I209" s="19" t="s">
         <v>43</v>
@@ -8679,7 +8677,7 @@
         <v>42</v>
       </c>
       <c r="H210" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I210" s="19" t="s">
         <v>43</v>
@@ -8708,7 +8706,7 @@
         <v>42</v>
       </c>
       <c r="H211" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I211" s="19" t="s">
         <v>43</v>
@@ -8737,7 +8735,7 @@
         <v>42</v>
       </c>
       <c r="H212" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I212" s="19" t="s">
         <v>43</v>
@@ -8766,7 +8764,7 @@
         <v>42</v>
       </c>
       <c r="H213" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I213" s="19" t="s">
         <v>43</v>
@@ -8795,7 +8793,7 @@
         <v>42</v>
       </c>
       <c r="H214" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I214" s="19" t="s">
         <v>43</v>
@@ -8815,7 +8813,7 @@
         <v>15</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F215" s="17">
         <v>1</v>
@@ -8824,7 +8822,7 @@
         <v>41</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I215" s="19" t="s">
         <v>43</v>
@@ -8844,7 +8842,7 @@
         <v>15</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F216" s="17">
         <v>2</v>
@@ -8853,7 +8851,7 @@
         <v>41</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I216" s="19" t="s">
         <v>43</v>
@@ -8873,7 +8871,7 @@
         <v>13</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F217" s="17">
         <v>3</v>
@@ -8882,7 +8880,7 @@
         <v>41</v>
       </c>
       <c r="H217" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I217" s="19" t="s">
         <v>43</v>
@@ -8902,7 +8900,7 @@
         <v>13</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F218" s="17">
         <v>4</v>
@@ -8911,7 +8909,7 @@
         <v>41</v>
       </c>
       <c r="H218" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I218" s="19" t="s">
         <v>43</v>
@@ -8931,7 +8929,7 @@
         <v>14</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F219" s="17">
         <v>5</v>
@@ -8940,7 +8938,7 @@
         <v>41</v>
       </c>
       <c r="H219" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I219" s="19" t="s">
         <v>43</v>
@@ -8960,7 +8958,7 @@
         <v>54</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F220" s="17">
         <v>1</v>
@@ -8969,7 +8967,7 @@
         <v>41</v>
       </c>
       <c r="H220" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I220" s="19" t="s">
         <v>43</v>
@@ -8989,7 +8987,7 @@
         <v>50</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F221" s="17">
         <v>2</v>
@@ -8998,7 +8996,7 @@
         <v>41</v>
       </c>
       <c r="H221" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I221" s="19" t="s">
         <v>43</v>
@@ -9018,7 +9016,7 @@
         <v>62</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F222" s="17">
         <v>3</v>
@@ -9027,7 +9025,7 @@
         <v>41</v>
       </c>
       <c r="H222" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I222" s="19" t="s">
         <v>43</v>
@@ -9047,7 +9045,7 @@
         <v>61</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F223" s="17">
         <v>4</v>
@@ -9056,7 +9054,7 @@
         <v>41</v>
       </c>
       <c r="H223" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I223" s="19" t="s">
         <v>43</v>
@@ -9076,7 +9074,7 @@
         <v>65</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F224" s="17">
         <v>5</v>
@@ -9085,7 +9083,7 @@
         <v>41</v>
       </c>
       <c r="H224" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I224" s="19" t="s">
         <v>43</v>
@@ -9105,7 +9103,7 @@
         <v>31</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F225" s="13">
         <v>3</v>
@@ -9114,7 +9112,7 @@
         <v>41</v>
       </c>
       <c r="H225" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I225" s="19" t="s">
         <v>43</v>
@@ -9134,7 +9132,7 @@
         <v>29</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F226" s="13">
         <v>1</v>
@@ -9143,7 +9141,7 @@
         <v>41</v>
       </c>
       <c r="H226" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I226" s="19" t="s">
         <v>43</v>
@@ -9163,7 +9161,7 @@
         <v>32</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F227" s="13">
         <v>2</v>
@@ -9172,10 +9170,10 @@
         <v>41</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I227" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9192,7 +9190,7 @@
         <v>33</v>
       </c>
       <c r="E228" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F228" s="13">
         <v>4</v>
@@ -9201,7 +9199,7 @@
         <v>41</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I228" s="19" t="s">
         <v>43</v>
@@ -9221,7 +9219,7 @@
         <v>31</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F229" s="13">
         <v>5</v>
@@ -9230,7 +9228,7 @@
         <v>41</v>
       </c>
       <c r="H229" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I229" s="19" t="s">
         <v>43</v>
@@ -9250,7 +9248,7 @@
         <v>45</v>
       </c>
       <c r="E230" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F230" s="13">
         <v>1</v>
@@ -9259,7 +9257,7 @@
         <v>41</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I230" s="19" t="s">
         <v>43</v>
@@ -9279,7 +9277,7 @@
         <v>44</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F231" s="13">
         <v>2</v>
@@ -9288,7 +9286,7 @@
         <v>41</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I231" s="19" t="s">
         <v>43</v>
@@ -9308,7 +9306,7 @@
         <v>46</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F232" s="13">
         <v>3</v>
@@ -9317,7 +9315,7 @@
         <v>41</v>
       </c>
       <c r="H232" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I232" s="19" t="s">
         <v>43</v>
@@ -9337,7 +9335,7 @@
         <v>48</v>
       </c>
       <c r="E233" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F233" s="13">
         <v>4</v>
@@ -9346,7 +9344,7 @@
         <v>41</v>
       </c>
       <c r="H233" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I233" s="19" t="s">
         <v>43</v>
@@ -9366,7 +9364,7 @@
         <v>40</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F234" s="13">
         <v>5</v>
@@ -9375,7 +9373,7 @@
         <v>41</v>
       </c>
       <c r="H234" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I234" s="19" t="s">
         <v>43</v>
@@ -9395,7 +9393,7 @@
         <v>15</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F235" s="15">
         <v>1</v>
@@ -9404,7 +9402,7 @@
         <v>42</v>
       </c>
       <c r="H235" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I235" s="19" t="s">
         <v>43</v>
@@ -9424,7 +9422,7 @@
         <v>15</v>
       </c>
       <c r="E236" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F236" s="15">
         <v>1</v>
@@ -9433,7 +9431,7 @@
         <v>42</v>
       </c>
       <c r="H236" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I236" s="19" t="s">
         <v>43</v>
@@ -9453,7 +9451,7 @@
         <v>45</v>
       </c>
       <c r="E237" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F237" s="15">
         <v>1</v>
@@ -9462,7 +9460,7 @@
         <v>42</v>
       </c>
       <c r="H237" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I237" s="19" t="s">
         <v>43</v>
@@ -9482,7 +9480,7 @@
         <v>46</v>
       </c>
       <c r="E238" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F238" s="15">
         <v>2</v>
@@ -9491,7 +9489,7 @@
         <v>42</v>
       </c>
       <c r="H238" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I238" s="19" t="s">
         <v>43</v>
@@ -9511,7 +9509,7 @@
         <v>45</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F239" s="15">
         <v>3</v>
@@ -9520,7 +9518,7 @@
         <v>42</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I239" s="19" t="s">
         <v>43</v>
@@ -9540,7 +9538,7 @@
         <v>44</v>
       </c>
       <c r="E240" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F240" s="15">
         <v>4</v>
@@ -9549,7 +9547,7 @@
         <v>42</v>
       </c>
       <c r="H240" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I240" s="19" t="s">
         <v>43</v>
@@ -9569,7 +9567,7 @@
         <v>46</v>
       </c>
       <c r="E241" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F241" s="15">
         <v>5</v>
@@ -9578,7 +9576,7 @@
         <v>42</v>
       </c>
       <c r="H241" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I241" s="19" t="s">
         <v>43</v>
@@ -9598,7 +9596,7 @@
         <v>44</v>
       </c>
       <c r="E242" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F242" s="15">
         <v>6</v>
@@ -9607,7 +9605,7 @@
         <v>42</v>
       </c>
       <c r="H242" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I242" s="19" t="s">
         <v>43</v>
@@ -9627,7 +9625,7 @@
         <v>53</v>
       </c>
       <c r="E243" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F243" s="15">
         <v>1</v>
@@ -9636,7 +9634,7 @@
         <v>42</v>
       </c>
       <c r="H243" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I243" s="19" t="s">
         <v>43</v>
@@ -9656,7 +9654,7 @@
         <v>52</v>
       </c>
       <c r="E244" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F244" s="15">
         <v>2</v>
@@ -9665,7 +9663,7 @@
         <v>42</v>
       </c>
       <c r="H244" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I244" s="19" t="s">
         <v>43</v>
@@ -9685,7 +9683,7 @@
         <v>55</v>
       </c>
       <c r="E245" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F245" s="15">
         <v>3</v>
@@ -9694,7 +9692,7 @@
         <v>42</v>
       </c>
       <c r="H245" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I245" s="19" t="s">
         <v>43</v>
@@ -9714,7 +9712,7 @@
         <v>52</v>
       </c>
       <c r="E246" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F246" s="15">
         <v>4</v>
@@ -9723,7 +9721,7 @@
         <v>42</v>
       </c>
       <c r="H246" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I246" s="19" t="s">
         <v>43</v>
@@ -9743,7 +9741,7 @@
         <v>30</v>
       </c>
       <c r="E247" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F247" s="15">
         <v>3</v>
@@ -9752,7 +9750,7 @@
         <v>42</v>
       </c>
       <c r="H247" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I247" s="19" t="s">
         <v>43</v>
@@ -9772,7 +9770,7 @@
         <v>18</v>
       </c>
       <c r="E248" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F248" s="15">
         <v>2</v>
@@ -9781,7 +9779,7 @@
         <v>42</v>
       </c>
       <c r="H248" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I248" s="19" t="s">
         <v>43</v>
@@ -9801,7 +9799,7 @@
         <v>15</v>
       </c>
       <c r="E249" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F249" s="15">
         <v>3</v>
@@ -9810,7 +9808,7 @@
         <v>42</v>
       </c>
       <c r="H249" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I249" s="19" t="s">
         <v>43</v>
@@ -9830,7 +9828,7 @@
         <v>15</v>
       </c>
       <c r="E250" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F250" s="15">
         <v>4</v>
@@ -9839,7 +9837,7 @@
         <v>42</v>
       </c>
       <c r="H250" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I250" s="19" t="s">
         <v>43</v>
@@ -9859,7 +9857,7 @@
         <v>30</v>
       </c>
       <c r="E251" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F251" s="15">
         <v>4</v>
@@ -9868,7 +9866,7 @@
         <v>42</v>
       </c>
       <c r="H251" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I251" s="19" t="s">
         <v>43</v>
@@ -9888,7 +9886,7 @@
         <v>29</v>
       </c>
       <c r="E252" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F252" s="15">
         <v>5</v>
@@ -9897,7 +9895,7 @@
         <v>42</v>
       </c>
       <c r="H252" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I252" s="19" t="s">
         <v>43</v>
@@ -9917,7 +9915,7 @@
         <v>50</v>
       </c>
       <c r="E253" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F253" s="15">
         <v>5</v>
@@ -9926,7 +9924,7 @@
         <v>42</v>
       </c>
       <c r="H253" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I253" s="19" t="s">
         <v>43</v>
@@ -9946,7 +9944,7 @@
         <v>16</v>
       </c>
       <c r="E254" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F254" s="15">
         <v>5</v>
@@ -9955,15 +9953,15 @@
         <v>42</v>
       </c>
       <c r="H254" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I254" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B255" s="16">
         <v>44420</v>
@@ -9975,7 +9973,7 @@
         <v>30</v>
       </c>
       <c r="E255" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F255" s="15">
         <v>1</v>
@@ -9984,7 +9982,7 @@
         <v>42</v>
       </c>
       <c r="H255" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I255" s="19" t="s">
         <v>43</v>
@@ -9992,7 +9990,7 @@
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B256" s="16">
         <v>44420</v>
@@ -10004,7 +10002,7 @@
         <v>31</v>
       </c>
       <c r="E256" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F256" s="15">
         <v>2</v>
@@ -10013,7 +10011,7 @@
         <v>42</v>
       </c>
       <c r="H256" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I256" s="19" t="s">
         <v>43</v>
@@ -10033,7 +10031,7 @@
         <v>16</v>
       </c>
       <c r="E257" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F257" s="17">
         <v>1</v>
@@ -10042,7 +10040,7 @@
         <v>41</v>
       </c>
       <c r="H257" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I257" s="19" t="s">
         <v>43</v>
@@ -10062,7 +10060,7 @@
         <v>15</v>
       </c>
       <c r="E258" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F258" s="17">
         <v>2</v>
@@ -10071,7 +10069,7 @@
         <v>41</v>
       </c>
       <c r="H258" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I258" s="19" t="s">
         <v>43</v>
@@ -10091,7 +10089,7 @@
         <v>14</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F259" s="17">
         <v>3</v>
@@ -10100,7 +10098,7 @@
         <v>41</v>
       </c>
       <c r="H259" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I259" s="19" t="s">
         <v>43</v>
@@ -10120,7 +10118,7 @@
         <v>14</v>
       </c>
       <c r="E260" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F260" s="17">
         <v>4</v>
@@ -10129,7 +10127,7 @@
         <v>41</v>
       </c>
       <c r="H260" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I260" s="19" t="s">
         <v>43</v>
@@ -10149,7 +10147,7 @@
         <v>16</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F261" s="17">
         <v>5</v>
@@ -10158,7 +10156,7 @@
         <v>41</v>
       </c>
       <c r="H261" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I261" s="19" t="s">
         <v>43</v>
@@ -10178,7 +10176,7 @@
         <v>57</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F262" s="17">
         <v>1</v>
@@ -10187,7 +10185,7 @@
         <v>41</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I262" s="19" t="s">
         <v>43</v>
@@ -10207,7 +10205,7 @@
         <v>54</v>
       </c>
       <c r="E263" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F263" s="17">
         <v>2</v>
@@ -10216,7 +10214,7 @@
         <v>41</v>
       </c>
       <c r="H263" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I263" s="19" t="s">
         <v>43</v>
@@ -10236,7 +10234,7 @@
         <v>52</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F264" s="17">
         <v>3</v>
@@ -10245,7 +10243,7 @@
         <v>41</v>
       </c>
       <c r="H264" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I264" s="19" t="s">
         <v>43</v>
@@ -10265,7 +10263,7 @@
         <v>56</v>
       </c>
       <c r="E265" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F265" s="17">
         <v>4</v>
@@ -10274,7 +10272,7 @@
         <v>41</v>
       </c>
       <c r="H265" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I265" s="19" t="s">
         <v>43</v>
@@ -10294,7 +10292,7 @@
         <v>59</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F266" s="17">
         <v>5</v>
@@ -10303,7 +10301,7 @@
         <v>41</v>
       </c>
       <c r="H266" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I266" s="19" t="s">
         <v>43</v>
@@ -10323,7 +10321,7 @@
         <v>30</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F267" s="13">
         <v>3</v>
@@ -10332,7 +10330,7 @@
         <v>41</v>
       </c>
       <c r="H267" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I267" s="19" t="s">
         <v>43</v>
@@ -10352,7 +10350,7 @@
         <v>31</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F268" s="13">
         <v>4</v>
@@ -10361,7 +10359,7 @@
         <v>41</v>
       </c>
       <c r="H268" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I268" s="19" t="s">
         <v>43</v>
@@ -10381,7 +10379,7 @@
         <v>29</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F269" s="13">
         <v>1</v>
@@ -10390,10 +10388,10 @@
         <v>41</v>
       </c>
       <c r="H269" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10410,7 +10408,7 @@
         <v>31</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F270" s="13">
         <v>2</v>
@@ -10419,7 +10417,7 @@
         <v>41</v>
       </c>
       <c r="H270" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I270" s="19" t="s">
         <v>43</v>
@@ -10439,7 +10437,7 @@
         <v>33</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F271" s="13">
         <v>5</v>
@@ -10448,7 +10446,7 @@
         <v>41</v>
       </c>
       <c r="H271" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I271" s="19" t="s">
         <v>43</v>
@@ -10468,7 +10466,7 @@
         <v>44</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F272" s="13">
         <v>1</v>
@@ -10477,7 +10475,7 @@
         <v>41</v>
       </c>
       <c r="H272" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I272" s="19" t="s">
         <v>43</v>
@@ -10497,7 +10495,7 @@
         <v>46</v>
       </c>
       <c r="E273" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F273" s="13">
         <v>2</v>
@@ -10506,7 +10504,7 @@
         <v>41</v>
       </c>
       <c r="H273" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I273" s="19" t="s">
         <v>43</v>
@@ -10526,7 +10524,7 @@
         <v>46</v>
       </c>
       <c r="E274" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F274" s="13">
         <v>3</v>
@@ -10535,10 +10533,10 @@
         <v>41</v>
       </c>
       <c r="H274" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="I274" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="I274" s="19" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -10555,7 +10553,7 @@
         <v>45</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F275" s="13">
         <v>4</v>
@@ -10564,7 +10562,7 @@
         <v>41</v>
       </c>
       <c r="H275" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I275" s="19" t="s">
         <v>43</v>
@@ -10584,7 +10582,7 @@
         <v>44</v>
       </c>
       <c r="E276" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F276" s="13">
         <v>5</v>
@@ -10593,7 +10591,7 @@
         <v>41</v>
       </c>
       <c r="H276" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I276" s="19" t="s">
         <v>43</v>
@@ -10613,7 +10611,7 @@
         <v>15</v>
       </c>
       <c r="E277" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F277" s="15">
         <v>1</v>
@@ -10622,7 +10620,7 @@
         <v>42</v>
       </c>
       <c r="H277" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I277" s="19" t="s">
         <v>43</v>
@@ -10642,7 +10640,7 @@
         <v>15</v>
       </c>
       <c r="E278" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F278" s="15">
         <v>1</v>
@@ -10651,7 +10649,7 @@
         <v>42</v>
       </c>
       <c r="H278" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I278" s="19" t="s">
         <v>43</v>
@@ -10671,7 +10669,7 @@
         <v>47</v>
       </c>
       <c r="E279" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F279" s="15">
         <v>1</v>
@@ -10680,7 +10678,7 @@
         <v>42</v>
       </c>
       <c r="H279" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I279" s="19" t="s">
         <v>43</v>
@@ -10700,7 +10698,7 @@
         <v>45</v>
       </c>
       <c r="E280" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F280" s="15">
         <v>2</v>
@@ -10709,7 +10707,7 @@
         <v>42</v>
       </c>
       <c r="H280" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I280" s="19" t="s">
         <v>43</v>
@@ -10729,7 +10727,7 @@
         <v>46</v>
       </c>
       <c r="E281" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F281" s="15">
         <v>3</v>
@@ -10738,7 +10736,7 @@
         <v>42</v>
       </c>
       <c r="H281" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I281" s="19" t="s">
         <v>43</v>
@@ -10758,7 +10756,7 @@
         <v>46</v>
       </c>
       <c r="E282" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F282" s="15">
         <v>4</v>
@@ -10767,7 +10765,7 @@
         <v>42</v>
       </c>
       <c r="H282" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I282" s="19" t="s">
         <v>43</v>
@@ -10787,7 +10785,7 @@
         <v>47</v>
       </c>
       <c r="E283" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F283" s="15">
         <v>5</v>
@@ -10796,7 +10794,7 @@
         <v>42</v>
       </c>
       <c r="H283" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I283" s="19" t="s">
         <v>43</v>
@@ -10816,7 +10814,7 @@
         <v>44</v>
       </c>
       <c r="E284" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F284" s="15">
         <v>6</v>
@@ -10825,7 +10823,7 @@
         <v>42</v>
       </c>
       <c r="H284" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I284" s="19" t="s">
         <v>43</v>
@@ -10845,7 +10843,7 @@
         <v>47</v>
       </c>
       <c r="E285" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F285" s="15">
         <v>7</v>
@@ -10854,7 +10852,7 @@
         <v>42</v>
       </c>
       <c r="H285" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I285" s="19" t="s">
         <v>43</v>
@@ -10874,7 +10872,7 @@
         <v>54</v>
       </c>
       <c r="E286" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F286" s="15">
         <v>1</v>
@@ -10883,7 +10881,7 @@
         <v>42</v>
       </c>
       <c r="H286" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I286" s="19" t="s">
         <v>43</v>
@@ -10903,7 +10901,7 @@
         <v>54</v>
       </c>
       <c r="E287" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F287" s="15">
         <v>3</v>
@@ -10912,7 +10910,7 @@
         <v>42</v>
       </c>
       <c r="H287" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I287" s="19" t="s">
         <v>43</v>
@@ -10932,7 +10930,7 @@
         <v>56</v>
       </c>
       <c r="E288" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F288" s="15">
         <v>4</v>
@@ -10941,7 +10939,7 @@
         <v>42</v>
       </c>
       <c r="H288" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I288" s="19" t="s">
         <v>43</v>
@@ -10961,7 +10959,7 @@
         <v>53</v>
       </c>
       <c r="E289" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F289" s="15">
         <v>5</v>
@@ -10970,7 +10968,7 @@
         <v>42</v>
       </c>
       <c r="H289" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I289" s="19" t="s">
         <v>43</v>
@@ -10990,7 +10988,7 @@
         <v>52</v>
       </c>
       <c r="E290" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F290" s="15">
         <v>6</v>
@@ -10999,7 +10997,7 @@
         <v>42</v>
       </c>
       <c r="H290" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I290" s="19" t="s">
         <v>43</v>
@@ -11019,7 +11017,7 @@
         <v>30</v>
       </c>
       <c r="E291" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F291" s="15">
         <v>1</v>
@@ -11028,7 +11026,7 @@
         <v>42</v>
       </c>
       <c r="H291" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I291" s="19" t="s">
         <v>43</v>
@@ -11048,7 +11046,7 @@
         <v>57</v>
       </c>
       <c r="E292" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F292" s="15">
         <v>7</v>
@@ -11057,7 +11055,7 @@
         <v>42</v>
       </c>
       <c r="H292" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I292" s="19" t="s">
         <v>43</v>
@@ -11077,7 +11075,7 @@
         <v>30</v>
       </c>
       <c r="E293" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F293" s="15">
         <v>4</v>
@@ -11086,7 +11084,7 @@
         <v>42</v>
       </c>
       <c r="H293" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I293" s="19" t="s">
         <v>43</v>
@@ -11106,7 +11104,7 @@
         <v>30</v>
       </c>
       <c r="E294" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F294" s="15">
         <v>5</v>
@@ -11115,7 +11113,7 @@
         <v>42</v>
       </c>
       <c r="H294" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I294" s="19" t="s">
         <v>43</v>
@@ -11135,7 +11133,7 @@
         <v>18</v>
       </c>
       <c r="E295" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F295" s="15">
         <v>2</v>
@@ -11144,7 +11142,7 @@
         <v>42</v>
       </c>
       <c r="H295" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I295" s="19" t="s">
         <v>43</v>
@@ -11164,7 +11162,7 @@
         <v>15</v>
       </c>
       <c r="E296" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F296" s="15">
         <v>3</v>
@@ -11173,7 +11171,7 @@
         <v>42</v>
       </c>
       <c r="H296" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I296" s="19" t="s">
         <v>43</v>
@@ -11193,7 +11191,7 @@
         <v>15</v>
       </c>
       <c r="E297" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F297" s="15">
         <v>4</v>
@@ -11202,7 +11200,7 @@
         <v>42</v>
       </c>
       <c r="H297" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I297" s="19" t="s">
         <v>43</v>
@@ -11222,7 +11220,7 @@
         <v>15</v>
       </c>
       <c r="E298" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F298" s="15">
         <v>5</v>
@@ -11231,7 +11229,7 @@
         <v>42</v>
       </c>
       <c r="H298" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I298" s="19" t="s">
         <v>43</v>
@@ -11239,7 +11237,7 @@
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B299" s="16">
         <v>44420</v>
@@ -11251,7 +11249,7 @@
         <v>30</v>
       </c>
       <c r="E299" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F299" s="15">
         <v>3</v>
@@ -11260,7 +11258,7 @@
         <v>42</v>
       </c>
       <c r="H299" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I299" s="19" t="s">
         <v>43</v>
@@ -11268,7 +11266,7 @@
     </row>
     <row r="300" spans="1:9">
       <c r="A300" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B300" s="16">
         <v>44420</v>
@@ -11280,7 +11278,7 @@
         <v>31</v>
       </c>
       <c r="E300" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F300" s="15">
         <v>2</v>
@@ -11289,7 +11287,7 @@
         <v>42</v>
       </c>
       <c r="H300" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I300" s="19" t="s">
         <v>43</v>
@@ -11309,7 +11307,7 @@
         <v>53</v>
       </c>
       <c r="E301" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F301" s="15">
         <v>2</v>
@@ -11318,7 +11316,7 @@
         <v>42</v>
       </c>
       <c r="H301" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I301" s="19" t="s">
         <v>43</v>

--- a/TLPR21_Raw_Master.xlsx
+++ b/TLPR21_Raw_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDE6564-9E6B-254C-AA7B-D66F073DFF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B2C2E7-239E-5F4F-8AF2-91444DF5B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="500" windowWidth="20840" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="370">
   <si>
     <t>Species</t>
   </si>
@@ -1139,7 +1139,13 @@
     <t>Colony_Number</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>HLE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -1662,8 +1668,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
   <dimension ref="A1:V833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F276" sqref="F276"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1677,7 +1685,7 @@
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -6223,11 +6231,44 @@
         <v>43</v>
       </c>
       <c r="J128" s="29"/>
-      <c r="K128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="U128" s="7"/>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="K128" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L128" s="1">
+        <v>22</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N128" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P128" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>14</v>
+      </c>
+      <c r="R128" s="1">
+        <v>15</v>
+      </c>
+      <c r="S128" s="1">
+        <v>16</v>
+      </c>
+      <c r="T128" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U128" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V128" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="17">
         <v>144</v>
       </c>
@@ -6256,11 +6297,44 @@
         <v>43</v>
       </c>
       <c r="J129" s="6"/>
-      <c r="K129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="U129" s="7"/>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="K129" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L129" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N129" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P129" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>14</v>
+      </c>
+      <c r="R129" s="1">
+        <v>15</v>
+      </c>
+      <c r="S129" s="1">
+        <v>16</v>
+      </c>
+      <c r="T129" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U129" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="17">
         <v>145</v>
       </c>
@@ -6289,11 +6363,44 @@
         <v>43</v>
       </c>
       <c r="J130" s="6"/>
-      <c r="K130" s="7"/>
-      <c r="N130" s="7"/>
-      <c r="U130" s="7"/>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="K130" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L130" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N130" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P130" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>14</v>
+      </c>
+      <c r="R130" s="1">
+        <v>15</v>
+      </c>
+      <c r="S130" s="1">
+        <v>16</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U130" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="17">
         <v>148</v>
       </c>
@@ -6322,11 +6429,44 @@
         <v>43</v>
       </c>
       <c r="J131" s="6"/>
-      <c r="K131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="U131" s="7"/>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="K131" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L131" s="1">
+        <v>9</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N131" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P131" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>14</v>
+      </c>
+      <c r="R131" s="1">
+        <v>15</v>
+      </c>
+      <c r="S131" s="1">
+        <v>16</v>
+      </c>
+      <c r="T131" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U131" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V131" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="17">
         <v>150</v>
       </c>
@@ -6355,11 +6495,44 @@
         <v>43</v>
       </c>
       <c r="J132" s="6"/>
-      <c r="K132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="U132" s="7"/>
-    </row>
-    <row r="133" spans="1:21">
+      <c r="K132" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L132" s="1">
+        <v>18</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N132" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P132" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>14</v>
+      </c>
+      <c r="R132" s="1">
+        <v>15</v>
+      </c>
+      <c r="S132" s="1">
+        <v>16</v>
+      </c>
+      <c r="T132" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U132" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V132" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="17">
         <v>156</v>
       </c>
@@ -6388,11 +6561,44 @@
         <v>43</v>
       </c>
       <c r="J133" s="6"/>
-      <c r="K133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="U133" s="7"/>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="K133" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L133" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N133" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P133" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>14</v>
+      </c>
+      <c r="R133" s="1">
+        <v>15</v>
+      </c>
+      <c r="S133" s="1">
+        <v>16</v>
+      </c>
+      <c r="T133" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U133" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V133" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="13">
         <v>328</v>
       </c>
@@ -6421,11 +6627,44 @@
         <v>43</v>
       </c>
       <c r="J134" s="6"/>
-      <c r="K134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="U134" s="7"/>
-    </row>
-    <row r="135" spans="1:21">
+      <c r="K134" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L134" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N134" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P134" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>14</v>
+      </c>
+      <c r="R134" s="1">
+        <v>15</v>
+      </c>
+      <c r="S134" s="1">
+        <v>16</v>
+      </c>
+      <c r="T134" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U134" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="13">
         <v>329</v>
       </c>
@@ -6454,11 +6693,44 @@
         <v>43</v>
       </c>
       <c r="J135" s="6"/>
-      <c r="K135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="U135" s="7"/>
-    </row>
-    <row r="136" spans="1:21">
+      <c r="K135" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L135" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N135" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P135" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>14</v>
+      </c>
+      <c r="R135" s="1">
+        <v>15</v>
+      </c>
+      <c r="S135" s="1">
+        <v>16</v>
+      </c>
+      <c r="T135" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U135" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V135" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="13">
         <v>330</v>
       </c>
@@ -6487,11 +6759,44 @@
         <v>43</v>
       </c>
       <c r="J136" s="6"/>
-      <c r="K136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="U136" s="7"/>
-    </row>
-    <row r="137" spans="1:21">
+      <c r="K136" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L136" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N136" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P136" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>14</v>
+      </c>
+      <c r="R136" s="1">
+        <v>15</v>
+      </c>
+      <c r="S136" s="1">
+        <v>16</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U136" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="13">
         <v>331</v>
       </c>
@@ -6520,11 +6825,44 @@
         <v>43</v>
       </c>
       <c r="J137" s="6"/>
-      <c r="K137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="U137" s="7"/>
-    </row>
-    <row r="138" spans="1:21">
+      <c r="K137" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L137" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N137" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P137" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>14</v>
+      </c>
+      <c r="R137" s="1">
+        <v>15</v>
+      </c>
+      <c r="S137" s="1">
+        <v>16</v>
+      </c>
+      <c r="T137" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U137" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V137" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="13">
         <v>333</v>
       </c>
@@ -6552,9 +6890,44 @@
       <c r="I138" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K138" s="7"/>
-    </row>
-    <row r="139" spans="1:21">
+      <c r="K138" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L138" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N138" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P138" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>14</v>
+      </c>
+      <c r="R138" s="1">
+        <v>15</v>
+      </c>
+      <c r="S138" s="1">
+        <v>16</v>
+      </c>
+      <c r="T138" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U138" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V138" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="13">
         <v>338</v>
       </c>
@@ -6582,11 +6955,44 @@
       <c r="I139" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K139" s="7"/>
-      <c r="L139" s="9"/>
-      <c r="N139" s="7"/>
-    </row>
-    <row r="140" spans="1:21">
+      <c r="K139" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L139" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N139" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P139" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>14</v>
+      </c>
+      <c r="R139" s="1">
+        <v>15</v>
+      </c>
+      <c r="S139" s="1">
+        <v>16</v>
+      </c>
+      <c r="T139" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U139" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V139" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="13">
         <v>343</v>
       </c>
@@ -6614,10 +7020,45 @@
       <c r="I140" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K140" s="7"/>
-      <c r="L140" s="9"/>
-    </row>
-    <row r="141" spans="1:21">
+      <c r="J140" s="7"/>
+      <c r="K140" s="7">
+        <v>44720</v>
+      </c>
+      <c r="L140" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N140" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P140" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>14</v>
+      </c>
+      <c r="R140" s="1">
+        <v>15</v>
+      </c>
+      <c r="S140" s="1">
+        <v>16</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U140" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V140" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="13">
         <v>350</v>
       </c>
@@ -6645,11 +7086,45 @@
       <c r="I141" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K141" s="7"/>
-      <c r="L141" s="9"/>
-      <c r="N141" s="7"/>
-    </row>
-    <row r="142" spans="1:21">
+      <c r="J141" s="7"/>
+      <c r="K141" s="7">
+        <v>44720</v>
+      </c>
+      <c r="L141" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N141" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P141" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>14</v>
+      </c>
+      <c r="R141" s="1">
+        <v>15</v>
+      </c>
+      <c r="S141" s="1">
+        <v>16</v>
+      </c>
+      <c r="T141" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U141" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="13">
         <v>363</v>
       </c>
@@ -6677,10 +7152,44 @@
       <c r="I142" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K142" s="7"/>
-      <c r="L142" s="9"/>
-    </row>
-    <row r="143" spans="1:21">
+      <c r="K142" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L142" s="1">
+        <v>23</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N142" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P142" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>14</v>
+      </c>
+      <c r="R142" s="1">
+        <v>15</v>
+      </c>
+      <c r="S142" s="1">
+        <v>16</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U142" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="13">
         <v>366</v>
       </c>
@@ -6708,11 +7217,45 @@
       <c r="I143" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K143" s="7"/>
-      <c r="L143" s="9"/>
-      <c r="N143" s="7"/>
-    </row>
-    <row r="144" spans="1:21">
+      <c r="J143" s="7"/>
+      <c r="K143" s="7">
+        <v>44720</v>
+      </c>
+      <c r="L143" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N143" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P143" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>14</v>
+      </c>
+      <c r="R143" s="1">
+        <v>15</v>
+      </c>
+      <c r="S143" s="1">
+        <v>16</v>
+      </c>
+      <c r="T143" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U143" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V143" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="17">
         <v>161</v>
       </c>
@@ -6740,12 +7283,43 @@
       <c r="I144" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J144" s="6"/>
-      <c r="K144" s="7" t="s">
+      <c r="J144" s="7"/>
+      <c r="K144" s="7">
+        <v>44720</v>
+      </c>
+      <c r="L144" s="1">
+        <v>28</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N144" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P144" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>14</v>
+      </c>
+      <c r="R144" s="1">
+        <v>15</v>
+      </c>
+      <c r="S144" s="1">
+        <v>16</v>
+      </c>
+      <c r="T144" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U144" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V144" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="N144" s="7"/>
-      <c r="U144" s="7"/>
     </row>
     <row r="145" spans="1:22">
       <c r="A145" s="17">
@@ -6776,9 +7350,42 @@
         <v>43</v>
       </c>
       <c r="J145" s="6"/>
-      <c r="K145" s="7"/>
-      <c r="N145" s="7"/>
-      <c r="U145" s="7"/>
+      <c r="K145" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L145" s="1">
+        <v>23</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N145" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P145" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>14</v>
+      </c>
+      <c r="R145" s="1">
+        <v>15</v>
+      </c>
+      <c r="S145" s="1">
+        <v>16</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U145" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="17">
@@ -6809,18 +7416,42 @@
         <v>43</v>
       </c>
       <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="6"/>
-      <c r="T146" s="6"/>
-      <c r="U146" s="6"/>
-      <c r="V146" s="6"/>
+      <c r="K146" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L146" s="1">
+        <v>17</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N146" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P146" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>14</v>
+      </c>
+      <c r="R146" s="1">
+        <v>15</v>
+      </c>
+      <c r="S146" s="1">
+        <v>16</v>
+      </c>
+      <c r="T146" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U146" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V146" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="17">
@@ -6851,9 +7482,42 @@
         <v>43</v>
       </c>
       <c r="J147" s="6"/>
-      <c r="K147" s="7"/>
-      <c r="N147" s="7"/>
-      <c r="U147" s="7"/>
+      <c r="K147" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L147" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N147" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P147" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>14</v>
+      </c>
+      <c r="R147" s="1">
+        <v>15</v>
+      </c>
+      <c r="S147" s="1">
+        <v>16</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U147" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V147" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="17">
@@ -6884,9 +7548,42 @@
         <v>43</v>
       </c>
       <c r="J148" s="6"/>
-      <c r="K148" s="7"/>
-      <c r="N148" s="7"/>
-      <c r="U148" s="7"/>
+      <c r="K148" s="7">
+        <v>44760</v>
+      </c>
+      <c r="L148" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N148" s="7">
+        <v>44760</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P148" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>14</v>
+      </c>
+      <c r="R148" s="1">
+        <v>15</v>
+      </c>
+      <c r="S148" s="1">
+        <v>16</v>
+      </c>
+      <c r="T148" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U148" s="7">
+        <v>44761</v>
+      </c>
+      <c r="V148" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="15">
@@ -6916,6 +7613,45 @@
       <c r="I149" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="J149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V149" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="15">
@@ -6945,6 +7681,45 @@
       <c r="I150" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="J150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="15">
@@ -6974,6 +7749,43 @@
       <c r="I151" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L151" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N151" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P151" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>14</v>
+      </c>
+      <c r="R151" s="1">
+        <v>15</v>
+      </c>
+      <c r="S151" s="1">
+        <v>16</v>
+      </c>
+      <c r="T151" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U151" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V151" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="15">
@@ -7003,6 +7815,45 @@
       <c r="I152" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="J152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V152" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="15">
@@ -7032,6 +7883,42 @@
       <c r="I153" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="K153" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L153" s="1">
+        <v>22</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N153" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P153" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>14</v>
+      </c>
+      <c r="R153" s="1">
+        <v>15</v>
+      </c>
+      <c r="S153" s="1">
+        <v>16</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U153" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="15">
@@ -7061,6 +7948,42 @@
       <c r="I154" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="K154" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L154" s="1">
+        <v>15</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N154" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P154" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>14</v>
+      </c>
+      <c r="R154" s="1">
+        <v>15</v>
+      </c>
+      <c r="S154" s="1">
+        <v>16</v>
+      </c>
+      <c r="T154" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U154" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V154" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="15">
@@ -7090,6 +8013,42 @@
       <c r="I155" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="K155" s="7">
+        <v>44762</v>
+      </c>
+      <c r="L155" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N155" s="7">
+        <v>44762</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P155" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>14</v>
+      </c>
+      <c r="R155" s="1">
+        <v>15</v>
+      </c>
+      <c r="S155" s="1">
+        <v>16</v>
+      </c>
+      <c r="T155" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U155" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V155" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="15" t="s">
@@ -7119,6 +8078,42 @@
       <c r="I156" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="K156" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L156" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N156" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P156" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>14</v>
+      </c>
+      <c r="R156" s="1">
+        <v>15</v>
+      </c>
+      <c r="S156" s="1">
+        <v>16</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U156" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="15" t="s">
@@ -7148,6 +8143,42 @@
       <c r="I157" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="K157" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L157" s="1">
+        <v>28</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N157" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P157" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>14</v>
+      </c>
+      <c r="R157" s="1">
+        <v>15</v>
+      </c>
+      <c r="S157" s="1">
+        <v>16</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U157" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V157" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="15">
@@ -7177,6 +8208,42 @@
       <c r="I158" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="K158" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L158" s="1">
+        <v>37</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N158" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P158" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>14</v>
+      </c>
+      <c r="R158" s="1">
+        <v>15</v>
+      </c>
+      <c r="S158" s="1">
+        <v>16</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U158" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="15">
@@ -7206,6 +8273,42 @@
       <c r="I159" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="K159" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L159" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N159" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P159" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>14</v>
+      </c>
+      <c r="R159" s="1">
+        <v>15</v>
+      </c>
+      <c r="S159" s="1">
+        <v>16</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U159" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V159" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="15">
@@ -7235,8 +8338,44 @@
       <c r="I160" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="K160" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L160" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N160" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P160" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>14</v>
+      </c>
+      <c r="R160" s="1">
+        <v>15</v>
+      </c>
+      <c r="S160" s="1">
+        <v>16</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U160" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="15">
         <v>24</v>
       </c>
@@ -7264,8 +8403,44 @@
       <c r="I161" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="K161" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L161" s="1">
+        <v>19</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N161" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P161" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>14</v>
+      </c>
+      <c r="R161" s="1">
+        <v>15</v>
+      </c>
+      <c r="S161" s="1">
+        <v>16</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U161" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="15">
         <v>29</v>
       </c>
@@ -7293,8 +8468,44 @@
       <c r="I162" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="K162" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L162" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N162" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P162" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>14</v>
+      </c>
+      <c r="R162" s="1">
+        <v>15</v>
+      </c>
+      <c r="S162" s="1">
+        <v>16</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U162" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="15">
         <v>48</v>
       </c>
@@ -7322,8 +8533,44 @@
       <c r="I163" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="K163" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L163" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N163" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P163" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>14</v>
+      </c>
+      <c r="R163" s="1">
+        <v>15</v>
+      </c>
+      <c r="S163" s="1">
+        <v>16</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U163" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="15">
         <v>52</v>
       </c>
@@ -7351,8 +8598,44 @@
       <c r="I164" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="K164" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L164" s="1">
+        <v>20</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N164" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P164" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>14</v>
+      </c>
+      <c r="R164" s="1">
+        <v>15</v>
+      </c>
+      <c r="S164" s="1">
+        <v>16</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U164" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V164" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="15">
         <v>53</v>
       </c>
@@ -7380,8 +8663,44 @@
       <c r="I165" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="K165" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L165" s="1">
+        <v>22</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N165" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P165" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q165" s="1">
+        <v>14</v>
+      </c>
+      <c r="R165" s="1">
+        <v>15</v>
+      </c>
+      <c r="S165" s="1">
+        <v>16</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U165" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="15">
         <v>54</v>
       </c>
@@ -7409,8 +8728,44 @@
       <c r="I166" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="K166" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L166" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N166" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P166" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>14</v>
+      </c>
+      <c r="R166" s="1">
+        <v>15</v>
+      </c>
+      <c r="S166" s="1">
+        <v>16</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U166" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="15">
         <v>75</v>
       </c>
@@ -7438,8 +8793,44 @@
       <c r="I167" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="K167" s="7">
+        <v>44762</v>
+      </c>
+      <c r="L167" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N167" s="7">
+        <v>44762</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P167" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>14</v>
+      </c>
+      <c r="R167" s="1">
+        <v>15</v>
+      </c>
+      <c r="S167" s="1">
+        <v>16</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U167" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="15">
         <v>85</v>
       </c>
@@ -7467,8 +8858,44 @@
       <c r="I168" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="K168" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L168" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N168" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P168" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>14</v>
+      </c>
+      <c r="R168" s="1">
+        <v>15</v>
+      </c>
+      <c r="S168" s="1">
+        <v>16</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U168" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="15">
         <v>103</v>
       </c>
@@ -7496,8 +8923,44 @@
       <c r="I169" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="K169" s="7">
+        <v>44762</v>
+      </c>
+      <c r="L169" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N169" s="7">
+        <v>44762</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P169" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>14</v>
+      </c>
+      <c r="R169" s="1">
+        <v>15</v>
+      </c>
+      <c r="S169" s="1">
+        <v>16</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U169" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="15">
         <v>105</v>
       </c>
@@ -7525,8 +8988,44 @@
       <c r="I170" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="K170" s="7">
+        <v>44761</v>
+      </c>
+      <c r="L170" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N170" s="7">
+        <v>44761</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P170" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>14</v>
+      </c>
+      <c r="R170" s="1">
+        <v>15</v>
+      </c>
+      <c r="S170" s="1">
+        <v>16</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U170" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="15">
         <v>106</v>
       </c>
@@ -7554,8 +9053,44 @@
       <c r="I171" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="K171" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L171" s="1">
+        <v>20</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N171" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="P171" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q171" s="1">
+        <v>14</v>
+      </c>
+      <c r="R171" s="1">
+        <v>15</v>
+      </c>
+      <c r="S171" s="1">
+        <v>16</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U171" s="7">
+        <v>44769</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="13">
         <v>307</v>
       </c>
@@ -7583,8 +9118,11 @@
       <c r="I172" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="K172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="U172" s="7"/>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="13">
         <v>308</v>
       </c>
@@ -7612,8 +9150,10 @@
       <c r="I173" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="N173" s="7"/>
+      <c r="U173" s="7"/>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="13">
         <v>310</v>
       </c>
@@ -7641,8 +9181,10 @@
       <c r="I174" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="N174" s="7"/>
+      <c r="U174" s="7"/>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="13">
         <v>311</v>
       </c>
@@ -7670,8 +9212,10 @@
       <c r="I175" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="N175" s="7"/>
+      <c r="U175" s="7"/>
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" s="13">
         <v>312</v>
       </c>
@@ -7699,8 +9243,10 @@
       <c r="I176" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="N176" s="7"/>
+      <c r="U176" s="7"/>
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177" s="13">
         <v>313</v>
       </c>
@@ -7728,8 +9274,10 @@
       <c r="I177" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="N177" s="7"/>
+      <c r="U177" s="7"/>
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178" s="13">
         <v>317</v>
       </c>
@@ -7757,8 +9305,10 @@
       <c r="I178" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="N178" s="7"/>
+      <c r="U178" s="7"/>
+    </row>
+    <row r="179" spans="1:21">
       <c r="A179" s="13">
         <v>213</v>
       </c>
@@ -7786,8 +9336,10 @@
       <c r="I179" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="N179" s="7"/>
+      <c r="U179" s="7"/>
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180" s="13">
         <v>332</v>
       </c>
@@ -7815,8 +9367,10 @@
       <c r="I180" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="N180" s="7"/>
+      <c r="U180" s="7"/>
+    </row>
+    <row r="181" spans="1:21">
       <c r="A181" s="13">
         <v>334</v>
       </c>
@@ -7844,8 +9398,10 @@
       <c r="I181" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="N181" s="7"/>
+      <c r="U181" s="7"/>
+    </row>
+    <row r="182" spans="1:21">
       <c r="A182" s="13">
         <v>345</v>
       </c>
@@ -7873,8 +9429,10 @@
       <c r="I182" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="N182" s="7"/>
+      <c r="U182" s="7"/>
+    </row>
+    <row r="183" spans="1:21">
       <c r="A183" s="13">
         <v>347</v>
       </c>
@@ -7902,8 +9460,10 @@
       <c r="I183" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="N183" s="7"/>
+      <c r="U183" s="7"/>
+    </row>
+    <row r="184" spans="1:21">
       <c r="A184" s="13">
         <v>371</v>
       </c>
@@ -7931,8 +9491,10 @@
       <c r="I184" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="N184" s="7"/>
+      <c r="U184" s="7"/>
+    </row>
+    <row r="185" spans="1:21">
       <c r="A185" s="13">
         <v>372</v>
       </c>
@@ -7960,8 +9522,10 @@
       <c r="I185" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="N185" s="7"/>
+      <c r="U185" s="7"/>
+    </row>
+    <row r="186" spans="1:21">
       <c r="A186" s="36">
         <v>373</v>
       </c>
@@ -7989,8 +9553,10 @@
       <c r="I186" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="N186" s="7"/>
+      <c r="U186" s="7"/>
+    </row>
+    <row r="187" spans="1:21">
       <c r="A187" s="17">
         <v>170</v>
       </c>
@@ -8018,8 +9584,10 @@
       <c r="I187" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="N187" s="7"/>
+      <c r="U187" s="7"/>
+    </row>
+    <row r="188" spans="1:21">
       <c r="A188" s="17">
         <v>187</v>
       </c>
@@ -8047,8 +9615,10 @@
       <c r="I188" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="N188" s="7"/>
+      <c r="U188" s="7"/>
+    </row>
+    <row r="189" spans="1:21">
       <c r="A189" s="17">
         <v>189</v>
       </c>
@@ -8076,8 +9646,10 @@
       <c r="I189" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="N189" s="7"/>
+      <c r="U189" s="7"/>
+    </row>
+    <row r="190" spans="1:21">
       <c r="A190" s="17">
         <v>193</v>
       </c>
@@ -8105,8 +9677,10 @@
       <c r="I190" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="N190" s="7"/>
+      <c r="U190" s="7"/>
+    </row>
+    <row r="191" spans="1:21">
       <c r="A191" s="17">
         <v>194</v>
       </c>
@@ -8134,8 +9708,10 @@
       <c r="I191" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="N191" s="7"/>
+      <c r="U191" s="7"/>
+    </row>
+    <row r="192" spans="1:21">
       <c r="A192" s="15">
         <v>266</v>
       </c>

--- a/TLPR21_Raw_Master.xlsx
+++ b/TLPR21_Raw_Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B2C2E7-239E-5F4F-8AF2-91444DF5B5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11978E7D-480C-BE42-99CB-F42BA5E87389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="372">
   <si>
     <t>Species</t>
   </si>
@@ -1133,9 +1133,6 @@
     <t>Act_Depth</t>
   </si>
   <si>
-    <t>Counted twice</t>
-  </si>
-  <si>
     <t>Colony_Number</t>
   </si>
   <si>
@@ -1146,6 +1143,15 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -1287,33 +1293,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1340,18 +1346,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1669,9 +1669,9 @@
   <dimension ref="A1:V833"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N134" sqref="N134"/>
+      <selection pane="bottomLeft" activeCell="N216" sqref="N216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>39</v>
@@ -4316,28 +4316,28 @@
       <c r="U72" s="7"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="32">
+      <c r="A73" s="15">
         <v>111</v>
       </c>
-      <c r="B73" s="34">
+      <c r="B73" s="16">
         <v>44425</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="15">
         <v>30</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="15">
         <v>30</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F73" s="15">
         <v>4</v>
       </c>
-      <c r="G73" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H73" s="32" t="s">
+      <c r="G73" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>125</v>
       </c>
       <c r="I73" s="19" t="s">
@@ -5201,28 +5201,28 @@
       <c r="V96" s="6"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="33">
+      <c r="A97" s="30">
         <v>318</v>
       </c>
-      <c r="B97" s="35">
+      <c r="B97" s="31">
         <v>44431</v>
       </c>
-      <c r="C97" s="33">
+      <c r="C97" s="30">
         <v>30</v>
       </c>
-      <c r="D97" s="33">
+      <c r="D97" s="30">
         <v>31</v>
       </c>
-      <c r="E97" s="33" t="s">
+      <c r="E97" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="F97" s="33">
+      <c r="F97" s="30">
         <v>5</v>
       </c>
-      <c r="G97" s="33" t="s">
+      <c r="G97" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H97" s="33" t="s">
+      <c r="H97" s="30" t="s">
         <v>151</v>
       </c>
       <c r="I97" s="19" t="s">
@@ -5483,28 +5483,28 @@
       <c r="J105" s="6"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="30">
+      <c r="A106" s="17">
         <v>177</v>
       </c>
-      <c r="B106" s="31">
+      <c r="B106" s="20">
         <v>44427</v>
       </c>
-      <c r="C106" s="30">
+      <c r="C106" s="17">
         <v>55</v>
       </c>
-      <c r="D106" s="30">
+      <c r="D106" s="17">
         <v>63</v>
       </c>
-      <c r="E106" s="30" t="s">
+      <c r="E106" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F106" s="30">
+      <c r="F106" s="17">
         <v>4</v>
       </c>
-      <c r="G106" s="30" t="s">
+      <c r="G106" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H106" s="30" t="s">
+      <c r="H106" s="17" t="s">
         <v>147</v>
       </c>
       <c r="I106" s="19" t="s">
@@ -6238,7 +6238,7 @@
         <v>22</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N128" s="7">
         <v>44760</v>
@@ -6259,13 +6259,13 @@
         <v>16</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U128" s="7">
         <v>44761</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -6304,7 +6304,7 @@
         <v>26.5</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N129" s="7">
         <v>44760</v>
@@ -6325,13 +6325,13 @@
         <v>16</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U129" s="7">
         <v>44761</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -6370,13 +6370,13 @@
         <v>13.5</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N130" s="7">
         <v>44760</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P130" s="1">
         <v>13</v>
@@ -6391,13 +6391,13 @@
         <v>16</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U130" s="7">
         <v>44761</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -6436,7 +6436,7 @@
         <v>9</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N131" s="7">
         <v>44760</v>
@@ -6457,13 +6457,13 @@
         <v>16</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U131" s="7">
         <v>44761</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -6502,7 +6502,7 @@
         <v>18</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N132" s="7">
         <v>44760</v>
@@ -6523,13 +6523,13 @@
         <v>16</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U132" s="7">
         <v>44761</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -6568,7 +6568,7 @@
         <v>16.5</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N133" s="7">
         <v>44760</v>
@@ -6589,13 +6589,13 @@
         <v>16</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U133" s="7">
         <v>44761</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -6634,7 +6634,7 @@
         <v>17.5</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N134" s="7">
         <v>44760</v>
@@ -6655,13 +6655,13 @@
         <v>16</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U134" s="7">
         <v>44761</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -6700,13 +6700,13 @@
         <v>16.5</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N135" s="7">
         <v>44760</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P135" s="1">
         <v>13</v>
@@ -6721,13 +6721,13 @@
         <v>16</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U135" s="7">
         <v>44761</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -6766,7 +6766,7 @@
         <v>10.5</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N136" s="7">
         <v>44760</v>
@@ -6787,13 +6787,13 @@
         <v>16</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U136" s="7">
         <v>44761</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -6832,13 +6832,13 @@
         <v>14.5</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N137" s="7">
         <v>44760</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P137" s="1">
         <v>13</v>
@@ -6853,13 +6853,13 @@
         <v>16</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U137" s="7">
         <v>44761</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -6897,7 +6897,7 @@
         <v>17.5</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N138" s="7">
         <v>44760</v>
@@ -6918,13 +6918,13 @@
         <v>16</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U138" s="7">
         <v>44761</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -6962,7 +6962,7 @@
         <v>19.5</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N139" s="7">
         <v>44760</v>
@@ -6983,13 +6983,13 @@
         <v>16</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U139" s="7">
         <v>44761</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:22">
@@ -7049,13 +7049,13 @@
         <v>16</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U140" s="7">
         <v>44761</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="1:22">
@@ -7115,13 +7115,13 @@
         <v>16</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U141" s="7">
         <v>44761</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -7159,7 +7159,7 @@
         <v>23</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N142" s="7">
         <v>44760</v>
@@ -7180,13 +7180,13 @@
         <v>16</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U142" s="7">
         <v>44761</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:22">
@@ -7246,13 +7246,13 @@
         <v>16</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U143" s="7">
         <v>44761</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -7312,13 +7312,13 @@
         <v>16</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U144" s="7">
         <v>44761</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -7357,7 +7357,7 @@
         <v>23</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N145" s="7">
         <v>44760</v>
@@ -7378,13 +7378,13 @@
         <v>16</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U145" s="7">
         <v>44761</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -7423,7 +7423,7 @@
         <v>17</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N146" s="7">
         <v>44760</v>
@@ -7444,13 +7444,13 @@
         <v>16</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U146" s="7">
         <v>44761</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -7489,7 +7489,7 @@
         <v>26.5</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N147" s="7">
         <v>44760</v>
@@ -7510,13 +7510,13 @@
         <v>16</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U147" s="7">
         <v>44761</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="148" spans="1:22">
@@ -7555,13 +7555,13 @@
         <v>14.5</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N148" s="7">
         <v>44760</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P148" s="1">
         <v>13</v>
@@ -7576,13 +7576,13 @@
         <v>16</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U148" s="7">
         <v>44761</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -7757,13 +7757,13 @@
         <v>19.5</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N151" s="7">
         <v>44761</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P151" s="1">
         <v>13</v>
@@ -7778,13 +7778,13 @@
         <v>16</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U151" s="7">
         <v>44769</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -7890,13 +7890,13 @@
         <v>22</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N153" s="7">
         <v>44761</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P153" s="1">
         <v>13</v>
@@ -7911,13 +7911,13 @@
         <v>16</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U153" s="7">
         <v>44769</v>
       </c>
       <c r="V153" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:22">
@@ -7955,13 +7955,13 @@
         <v>15</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N154" s="7">
         <v>44767</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P154" s="1">
         <v>13</v>
@@ -7976,13 +7976,13 @@
         <v>16</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U154" s="7">
         <v>44769</v>
       </c>
       <c r="V154" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="155" spans="1:22">
@@ -8020,13 +8020,13 @@
         <v>17.5</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N155" s="7">
         <v>44762</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P155" s="1">
         <v>13</v>
@@ -8041,13 +8041,13 @@
         <v>16</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U155" s="7">
         <v>44769</v>
       </c>
       <c r="V155" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="156" spans="1:22">
@@ -8085,13 +8085,13 @@
         <v>25.5</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N156" s="7">
         <v>44761</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P156" s="1">
         <v>13</v>
@@ -8106,13 +8106,13 @@
         <v>16</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U156" s="7">
         <v>44769</v>
       </c>
       <c r="V156" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:22">
@@ -8150,13 +8150,13 @@
         <v>28</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N157" s="7">
         <v>44761</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P157" s="1">
         <v>13</v>
@@ -8171,13 +8171,13 @@
         <v>16</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U157" s="7">
         <v>44769</v>
       </c>
       <c r="V157" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="158" spans="1:22">
@@ -8215,13 +8215,13 @@
         <v>37</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N158" s="7">
         <v>44761</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P158" s="1">
         <v>13</v>
@@ -8236,13 +8236,13 @@
         <v>16</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U158" s="7">
         <v>44769</v>
       </c>
       <c r="V158" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -8280,13 +8280,13 @@
         <v>17.5</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N159" s="7">
         <v>44761</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P159" s="1">
         <v>13</v>
@@ -8301,13 +8301,13 @@
         <v>16</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U159" s="7">
         <v>44769</v>
       </c>
       <c r="V159" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -8345,13 +8345,13 @@
         <v>25.5</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N160" s="7">
         <v>44761</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P160" s="1">
         <v>13</v>
@@ -8366,13 +8366,13 @@
         <v>16</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U160" s="7">
         <v>44769</v>
       </c>
       <c r="V160" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -8410,13 +8410,13 @@
         <v>19</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N161" s="7">
         <v>44767</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P161" s="1">
         <v>13</v>
@@ -8431,13 +8431,13 @@
         <v>16</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U161" s="7">
         <v>44769</v>
       </c>
       <c r="V161" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -8475,13 +8475,13 @@
         <v>20.5</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N162" s="7">
         <v>44761</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P162" s="1">
         <v>13</v>
@@ -8496,13 +8496,13 @@
         <v>16</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U162" s="7">
         <v>44769</v>
       </c>
       <c r="V162" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -8540,13 +8540,13 @@
         <v>30.5</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N163" s="7">
         <v>44761</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P163" s="1">
         <v>13</v>
@@ -8561,13 +8561,13 @@
         <v>16</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U163" s="7">
         <v>44769</v>
       </c>
       <c r="V163" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -8605,13 +8605,13 @@
         <v>20</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N164" s="7">
         <v>44767</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P164" s="1">
         <v>13</v>
@@ -8626,13 +8626,13 @@
         <v>16</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U164" s="7">
         <v>44769</v>
       </c>
       <c r="V164" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:22">
@@ -8670,13 +8670,13 @@
         <v>22</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N165" s="7">
         <v>44761</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P165" s="1">
         <v>13</v>
@@ -8691,13 +8691,13 @@
         <v>16</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U165" s="7">
         <v>44769</v>
       </c>
       <c r="V165" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -8735,13 +8735,13 @@
         <v>35.5</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N166" s="7">
         <v>44761</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P166" s="1">
         <v>13</v>
@@ -8756,13 +8756,13 @@
         <v>16</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U166" s="7">
         <v>44769</v>
       </c>
       <c r="V166" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -8800,13 +8800,13 @@
         <v>26.5</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N167" s="7">
         <v>44762</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P167" s="1">
         <v>13</v>
@@ -8821,13 +8821,13 @@
         <v>16</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U167" s="7">
         <v>44769</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -8865,13 +8865,13 @@
         <v>23.5</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N168" s="7">
         <v>44767</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P168" s="1">
         <v>13</v>
@@ -8886,13 +8886,13 @@
         <v>16</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U168" s="7">
         <v>44769</v>
       </c>
       <c r="V168" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -8930,13 +8930,13 @@
         <v>30.5</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N169" s="7">
         <v>44762</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P169" s="1">
         <v>13</v>
@@ -8951,13 +8951,13 @@
         <v>16</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U169" s="7">
         <v>44769</v>
       </c>
       <c r="V169" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -8995,13 +8995,13 @@
         <v>17.5</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N170" s="7">
         <v>44761</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P170" s="1">
         <v>13</v>
@@ -9016,13 +9016,13 @@
         <v>16</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U170" s="7">
         <v>44769</v>
       </c>
       <c r="V170" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -9060,13 +9060,13 @@
         <v>20</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N171" s="7">
         <v>44767</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P171" s="1">
         <v>13</v>
@@ -9081,13 +9081,13 @@
         <v>16</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U171" s="7">
         <v>44769</v>
       </c>
       <c r="V171" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="172" spans="1:22">
@@ -9118,9 +9118,42 @@
       <c r="I172" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K172" s="7"/>
-      <c r="N172" s="7"/>
-      <c r="U172" s="7"/>
+      <c r="K172" s="7">
+        <v>44789</v>
+      </c>
+      <c r="L172" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N172" s="7">
+        <v>44789</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P172" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>14</v>
+      </c>
+      <c r="R172" s="1">
+        <v>15</v>
+      </c>
+      <c r="S172" s="1">
+        <v>16</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U172" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="173" spans="1:22">
       <c r="A173" s="13">
@@ -9150,8 +9183,42 @@
       <c r="I173" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N173" s="7"/>
-      <c r="U173" s="7"/>
+      <c r="K173" s="7">
+        <v>44789</v>
+      </c>
+      <c r="L173" s="1">
+        <v>21</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N173" s="7">
+        <v>44789</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P173" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q173" s="1">
+        <v>14</v>
+      </c>
+      <c r="R173" s="1">
+        <v>15</v>
+      </c>
+      <c r="S173" s="1">
+        <v>16</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U173" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="13">
@@ -9181,8 +9248,42 @@
       <c r="I174" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N174" s="7"/>
-      <c r="U174" s="7"/>
+      <c r="K174" s="7">
+        <v>44788</v>
+      </c>
+      <c r="L174" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N174" s="7">
+        <v>44788</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P174" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q174" s="1">
+        <v>14</v>
+      </c>
+      <c r="R174" s="1">
+        <v>15</v>
+      </c>
+      <c r="S174" s="1">
+        <v>16</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U174" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="13">
@@ -9212,8 +9313,42 @@
       <c r="I175" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N175" s="7"/>
-      <c r="U175" s="7"/>
+      <c r="K175" s="7">
+        <v>44788</v>
+      </c>
+      <c r="L175" s="1">
+        <v>25</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N175" s="7">
+        <v>44788</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P175" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>14</v>
+      </c>
+      <c r="R175" s="1">
+        <v>15</v>
+      </c>
+      <c r="S175" s="1">
+        <v>16</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U175" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="13">
@@ -9243,10 +9378,44 @@
       <c r="I176" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N176" s="7"/>
-      <c r="U176" s="7"/>
-    </row>
-    <row r="177" spans="1:21">
+      <c r="K176" s="7">
+        <v>44789</v>
+      </c>
+      <c r="L176" s="1">
+        <v>21</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N176" s="7">
+        <v>44789</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P176" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q176" s="1">
+        <v>14</v>
+      </c>
+      <c r="R176" s="1">
+        <v>15</v>
+      </c>
+      <c r="S176" s="1">
+        <v>16</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U176" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="13">
         <v>313</v>
       </c>
@@ -9274,10 +9443,44 @@
       <c r="I177" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N177" s="7"/>
-      <c r="U177" s="7"/>
-    </row>
-    <row r="178" spans="1:21">
+      <c r="K177" s="7">
+        <v>44795</v>
+      </c>
+      <c r="L177" s="1">
+        <v>30</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N177" s="7">
+        <v>44795</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P177" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>17</v>
+      </c>
+      <c r="R177" s="1">
+        <v>17</v>
+      </c>
+      <c r="S177" s="1">
+        <v>17</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U177" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="13">
         <v>317</v>
       </c>
@@ -9305,10 +9508,44 @@
       <c r="I178" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N178" s="7"/>
-      <c r="U178" s="7"/>
-    </row>
-    <row r="179" spans="1:21">
+      <c r="K178" s="7">
+        <v>44788</v>
+      </c>
+      <c r="L178" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N178" s="7">
+        <v>44788</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P178" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q178" s="1">
+        <v>14</v>
+      </c>
+      <c r="R178" s="1">
+        <v>15</v>
+      </c>
+      <c r="S178" s="1">
+        <v>16</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U178" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" s="13">
         <v>213</v>
       </c>
@@ -9336,10 +9573,44 @@
       <c r="I179" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N179" s="7"/>
-      <c r="U179" s="7"/>
-    </row>
-    <row r="180" spans="1:21">
+      <c r="K179" s="7">
+        <v>44789</v>
+      </c>
+      <c r="L179" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N179" s="7">
+        <v>44789</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P179" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>14</v>
+      </c>
+      <c r="R179" s="1">
+        <v>15</v>
+      </c>
+      <c r="S179" s="1">
+        <v>16</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U179" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" s="13">
         <v>332</v>
       </c>
@@ -9367,10 +9638,44 @@
       <c r="I180" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N180" s="7"/>
-      <c r="U180" s="7"/>
-    </row>
-    <row r="181" spans="1:21">
+      <c r="K180" s="7">
+        <v>44788</v>
+      </c>
+      <c r="L180" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N180" s="7">
+        <v>44788</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P180" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q180" s="1">
+        <v>14</v>
+      </c>
+      <c r="R180" s="1">
+        <v>15</v>
+      </c>
+      <c r="S180" s="1">
+        <v>16</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U180" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="13">
         <v>334</v>
       </c>
@@ -9398,10 +9703,44 @@
       <c r="I181" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N181" s="7"/>
-      <c r="U181" s="7"/>
-    </row>
-    <row r="182" spans="1:21">
+      <c r="K181" s="7">
+        <v>44789</v>
+      </c>
+      <c r="L181" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N181" s="7">
+        <v>44789</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P181" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q181" s="1">
+        <v>14</v>
+      </c>
+      <c r="R181" s="1">
+        <v>15</v>
+      </c>
+      <c r="S181" s="1">
+        <v>16</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U181" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" s="13">
         <v>345</v>
       </c>
@@ -9429,10 +9768,44 @@
       <c r="I182" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N182" s="7"/>
-      <c r="U182" s="7"/>
-    </row>
-    <row r="183" spans="1:21">
+      <c r="K182" s="7">
+        <v>44788</v>
+      </c>
+      <c r="L182" s="1">
+        <v>30</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N182" s="7">
+        <v>44788</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P182" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q182" s="1">
+        <v>14</v>
+      </c>
+      <c r="R182" s="1">
+        <v>15</v>
+      </c>
+      <c r="S182" s="1">
+        <v>16</v>
+      </c>
+      <c r="T182" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U182" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V182" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="13">
         <v>347</v>
       </c>
@@ -9460,10 +9833,44 @@
       <c r="I183" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N183" s="7"/>
-      <c r="U183" s="7"/>
-    </row>
-    <row r="184" spans="1:21">
+      <c r="K183" s="7">
+        <v>44788</v>
+      </c>
+      <c r="L183" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N183" s="7">
+        <v>44788</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P183" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>14</v>
+      </c>
+      <c r="R183" s="1">
+        <v>15</v>
+      </c>
+      <c r="S183" s="1">
+        <v>16</v>
+      </c>
+      <c r="T183" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U183" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V183" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" s="13">
         <v>371</v>
       </c>
@@ -9491,10 +9898,44 @@
       <c r="I184" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N184" s="7"/>
-      <c r="U184" s="7"/>
-    </row>
-    <row r="185" spans="1:21">
+      <c r="K184" s="7">
+        <v>44795</v>
+      </c>
+      <c r="L184" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N184" s="7">
+        <v>44795</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P184" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>17</v>
+      </c>
+      <c r="R184" s="1">
+        <v>17</v>
+      </c>
+      <c r="S184" s="1">
+        <v>17</v>
+      </c>
+      <c r="T184" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U184" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V184" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="13">
         <v>372</v>
       </c>
@@ -9522,41 +9963,109 @@
       <c r="I185" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N185" s="7"/>
-      <c r="U185" s="7"/>
-    </row>
-    <row r="186" spans="1:21">
-      <c r="A186" s="36">
+      <c r="K185" s="7">
+        <v>44788</v>
+      </c>
+      <c r="L185" s="1">
+        <v>32</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N185" s="7">
+        <v>44788</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P185" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q185" s="1">
+        <v>14</v>
+      </c>
+      <c r="R185" s="1">
+        <v>15</v>
+      </c>
+      <c r="S185" s="1">
+        <v>16</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U185" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V185" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="A186" s="13">
         <v>373</v>
       </c>
-      <c r="B186" s="37">
+      <c r="B186" s="14">
         <v>44432</v>
       </c>
-      <c r="C186" s="36">
+      <c r="C186" s="13">
         <v>45</v>
       </c>
-      <c r="D186" s="36">
+      <c r="D186" s="13">
         <v>45</v>
       </c>
-      <c r="E186" s="36" t="s">
+      <c r="E186" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="36">
+      <c r="F186" s="13">
         <v>5</v>
       </c>
-      <c r="G186" s="36" t="s">
+      <c r="G186" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H186" s="36" t="s">
+      <c r="H186" s="13" t="s">
         <v>244</v>
       </c>
       <c r="I186" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N186" s="7"/>
-      <c r="U186" s="7"/>
-    </row>
-    <row r="187" spans="1:21">
+      <c r="K186" s="7">
+        <v>44789</v>
+      </c>
+      <c r="L186" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N186" s="7">
+        <v>44789</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P186" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q186" s="1">
+        <v>14</v>
+      </c>
+      <c r="R186" s="1">
+        <v>15</v>
+      </c>
+      <c r="S186" s="1">
+        <v>16</v>
+      </c>
+      <c r="T186" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U186" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V186" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" s="17">
         <v>170</v>
       </c>
@@ -9584,10 +10093,44 @@
       <c r="I187" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N187" s="7"/>
-      <c r="U187" s="7"/>
-    </row>
-    <row r="188" spans="1:21">
+      <c r="K187" s="7">
+        <v>44789</v>
+      </c>
+      <c r="L187" s="1">
+        <v>25</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N187" s="7">
+        <v>44789</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P187" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>14</v>
+      </c>
+      <c r="R187" s="1">
+        <v>15</v>
+      </c>
+      <c r="S187" s="1">
+        <v>16</v>
+      </c>
+      <c r="T187" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U187" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V187" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="17">
         <v>187</v>
       </c>
@@ -9615,10 +10158,44 @@
       <c r="I188" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N188" s="7"/>
-      <c r="U188" s="7"/>
-    </row>
-    <row r="189" spans="1:21">
+      <c r="K188" s="7">
+        <v>44789</v>
+      </c>
+      <c r="L188" s="1">
+        <v>33</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N188" s="7">
+        <v>44789</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P188" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>14</v>
+      </c>
+      <c r="R188" s="1">
+        <v>15</v>
+      </c>
+      <c r="S188" s="1">
+        <v>16</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U188" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V188" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="17">
         <v>189</v>
       </c>
@@ -9646,10 +10223,44 @@
       <c r="I189" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N189" s="7"/>
-      <c r="U189" s="7"/>
-    </row>
-    <row r="190" spans="1:21">
+      <c r="K189" s="7">
+        <v>44788</v>
+      </c>
+      <c r="L189" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N189" s="7">
+        <v>44788</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P189" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q189" s="1">
+        <v>14</v>
+      </c>
+      <c r="R189" s="1">
+        <v>15</v>
+      </c>
+      <c r="S189" s="1">
+        <v>16</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U189" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V189" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="17">
         <v>193</v>
       </c>
@@ -9677,10 +10288,44 @@
       <c r="I190" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N190" s="7"/>
-      <c r="U190" s="7"/>
-    </row>
-    <row r="191" spans="1:21">
+      <c r="K190" s="7">
+        <v>44795</v>
+      </c>
+      <c r="L190" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N190" s="7">
+        <v>44795</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P190" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>17</v>
+      </c>
+      <c r="R190" s="1">
+        <v>17</v>
+      </c>
+      <c r="S190" s="1">
+        <v>17</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U190" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V190" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" s="17">
         <v>194</v>
       </c>
@@ -9708,10 +10353,44 @@
       <c r="I191" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N191" s="7"/>
-      <c r="U191" s="7"/>
-    </row>
-    <row r="192" spans="1:21">
+      <c r="K191" s="7">
+        <v>44795</v>
+      </c>
+      <c r="L191" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N191" s="7">
+        <v>44795</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P191" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q191" s="1">
+        <v>17</v>
+      </c>
+      <c r="R191" s="1">
+        <v>17</v>
+      </c>
+      <c r="S191" s="1">
+        <v>17</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U191" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V191" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="15">
         <v>266</v>
       </c>
@@ -9739,8 +10418,44 @@
       <c r="I192" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="U192" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="V192" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" s="15">
         <v>270</v>
       </c>
@@ -9768,8 +10483,44 @@
       <c r="I193" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193" s="7">
+        <v>44770</v>
+      </c>
+      <c r="L193" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N193" s="7">
+        <v>44770</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P193" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q193" s="1">
+        <v>14</v>
+      </c>
+      <c r="R193" s="1">
+        <v>15</v>
+      </c>
+      <c r="S193" s="1">
+        <v>16</v>
+      </c>
+      <c r="T193" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U193" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V193" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" s="15">
         <v>271</v>
       </c>
@@ -9797,8 +10548,44 @@
       <c r="I194" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L194" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N194" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P194" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q194" s="1">
+        <v>14</v>
+      </c>
+      <c r="R194" s="1">
+        <v>15</v>
+      </c>
+      <c r="S194" s="1">
+        <v>16</v>
+      </c>
+      <c r="T194" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U194" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V194" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" s="15">
         <v>273</v>
       </c>
@@ -9826,8 +10613,44 @@
       <c r="I195" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L195" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N195" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P195" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q195" s="1">
+        <v>14</v>
+      </c>
+      <c r="R195" s="1">
+        <v>15</v>
+      </c>
+      <c r="S195" s="1">
+        <v>16</v>
+      </c>
+      <c r="T195" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U195" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V195" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" s="15">
         <v>274</v>
       </c>
@@ -9855,8 +10678,44 @@
       <c r="I196" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L196" s="1">
+        <v>20</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N196" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P196" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q196" s="1">
+        <v>14</v>
+      </c>
+      <c r="R196" s="1">
+        <v>15</v>
+      </c>
+      <c r="S196" s="1">
+        <v>16</v>
+      </c>
+      <c r="T196" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U196" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V196" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" s="15">
         <v>116</v>
       </c>
@@ -9884,8 +10743,44 @@
       <c r="I197" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L197" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N197" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P197" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q197" s="1">
+        <v>14</v>
+      </c>
+      <c r="R197" s="1">
+        <v>15</v>
+      </c>
+      <c r="S197" s="1">
+        <v>16</v>
+      </c>
+      <c r="T197" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U197" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V197" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" s="15">
         <v>118</v>
       </c>
@@ -9913,8 +10808,44 @@
       <c r="I198" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L198" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N198" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P198" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q198" s="1">
+        <v>14</v>
+      </c>
+      <c r="R198" s="1">
+        <v>15</v>
+      </c>
+      <c r="S198" s="1">
+        <v>16</v>
+      </c>
+      <c r="T198" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U198" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V198" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22">
       <c r="A199" s="15">
         <v>126</v>
       </c>
@@ -9942,8 +10873,44 @@
       <c r="I199" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199" s="7">
+        <v>44769</v>
+      </c>
+      <c r="L199" s="1">
+        <v>22</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N199" s="7">
+        <v>44769</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P199" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q199" s="1">
+        <v>14</v>
+      </c>
+      <c r="R199" s="1">
+        <v>15</v>
+      </c>
+      <c r="S199" s="1">
+        <v>16</v>
+      </c>
+      <c r="T199" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U199" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V199" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22">
       <c r="A200" s="15">
         <v>127</v>
       </c>
@@ -9971,8 +10938,44 @@
       <c r="I200" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200" s="7">
+        <v>44770</v>
+      </c>
+      <c r="L200" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N200" s="7">
+        <v>44770</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P200" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q200" s="1">
+        <v>14</v>
+      </c>
+      <c r="R200" s="1">
+        <v>15</v>
+      </c>
+      <c r="S200" s="1">
+        <v>16</v>
+      </c>
+      <c r="T200" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U200" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V200" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22">
       <c r="A201" s="15">
         <v>257</v>
       </c>
@@ -10000,8 +11003,44 @@
       <c r="I201" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L201" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N201" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P201" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q201" s="1">
+        <v>14</v>
+      </c>
+      <c r="R201" s="1">
+        <v>15</v>
+      </c>
+      <c r="S201" s="1">
+        <v>16</v>
+      </c>
+      <c r="T201" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U201" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V201" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22">
       <c r="A202" s="15">
         <v>11</v>
       </c>
@@ -10029,8 +11068,44 @@
       <c r="I202" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L202" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N202" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P202" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>14</v>
+      </c>
+      <c r="R202" s="1">
+        <v>15</v>
+      </c>
+      <c r="S202" s="1">
+        <v>16</v>
+      </c>
+      <c r="T202" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U202" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V202" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22">
       <c r="A203" s="15">
         <v>15</v>
       </c>
@@ -10055,11 +11130,47 @@
       <c r="H203" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="I203" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="I203" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K203" s="7">
+        <v>44770</v>
+      </c>
+      <c r="L203" s="1">
+        <v>22</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N203" s="7">
+        <v>44770</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P203" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q203" s="1">
+        <v>14</v>
+      </c>
+      <c r="R203" s="1">
+        <v>15</v>
+      </c>
+      <c r="S203" s="1">
+        <v>16</v>
+      </c>
+      <c r="T203" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U203" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V203" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22">
       <c r="A204" s="15">
         <v>21</v>
       </c>
@@ -10087,8 +11198,44 @@
       <c r="I204" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L204" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N204" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P204" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q204" s="1">
+        <v>14</v>
+      </c>
+      <c r="R204" s="1">
+        <v>15</v>
+      </c>
+      <c r="S204" s="1">
+        <v>16</v>
+      </c>
+      <c r="T204" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U204" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V204" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22">
       <c r="A205" s="15">
         <v>27</v>
       </c>
@@ -10116,11 +11263,44 @@
       <c r="I205" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J205" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205" s="7">
+        <v>44768</v>
+      </c>
+      <c r="L205" s="1">
+        <v>25</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N205" s="7">
+        <v>44768</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P205" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q205" s="1">
+        <v>14</v>
+      </c>
+      <c r="R205" s="1">
+        <v>15</v>
+      </c>
+      <c r="S205" s="1">
+        <v>16</v>
+      </c>
+      <c r="T205" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U205" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V205" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22">
       <c r="A206" s="15">
         <v>31</v>
       </c>
@@ -10148,8 +11328,44 @@
       <c r="I206" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206" s="7">
+        <v>44768</v>
+      </c>
+      <c r="L206" s="1">
+        <v>17</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N206" s="7">
+        <v>44768</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P206" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q206" s="1">
+        <v>14</v>
+      </c>
+      <c r="R206" s="1">
+        <v>15</v>
+      </c>
+      <c r="S206" s="1">
+        <v>16</v>
+      </c>
+      <c r="T206" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U206" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V206" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22">
       <c r="A207" s="15">
         <v>35</v>
       </c>
@@ -10177,8 +11393,44 @@
       <c r="I207" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207" s="7">
+        <v>44769</v>
+      </c>
+      <c r="L207" s="1">
+        <v>24</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N207" s="7">
+        <v>44769</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P207" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q207" s="1">
+        <v>14</v>
+      </c>
+      <c r="R207" s="1">
+        <v>15</v>
+      </c>
+      <c r="S207" s="1">
+        <v>16</v>
+      </c>
+      <c r="T207" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U207" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V207" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22">
       <c r="A208" s="15">
         <v>40</v>
       </c>
@@ -10206,8 +11458,44 @@
       <c r="I208" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="K208" s="7">
+        <v>44770</v>
+      </c>
+      <c r="L208" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N208" s="7">
+        <v>44770</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P208" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q208" s="1">
+        <v>14</v>
+      </c>
+      <c r="R208" s="1">
+        <v>15</v>
+      </c>
+      <c r="S208" s="1">
+        <v>16</v>
+      </c>
+      <c r="T208" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U208" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V208" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="15">
         <v>46</v>
       </c>
@@ -10235,8 +11523,44 @@
       <c r="I209" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="K209" s="7">
+        <v>44770</v>
+      </c>
+      <c r="L209" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N209" s="7">
+        <v>44770</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P209" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q209" s="1">
+        <v>14</v>
+      </c>
+      <c r="R209" s="1">
+        <v>15</v>
+      </c>
+      <c r="S209" s="1">
+        <v>16</v>
+      </c>
+      <c r="T209" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U209" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V209" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="15">
         <v>64</v>
       </c>
@@ -10264,8 +11588,44 @@
       <c r="I210" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="K210" s="7">
+        <v>44769</v>
+      </c>
+      <c r="L210" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N210" s="7">
+        <v>44769</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P210" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q210" s="1">
+        <v>14</v>
+      </c>
+      <c r="R210" s="1">
+        <v>15</v>
+      </c>
+      <c r="S210" s="1">
+        <v>16</v>
+      </c>
+      <c r="T210" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U210" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V210" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="15">
         <v>68</v>
       </c>
@@ -10293,8 +11653,44 @@
       <c r="I211" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="K211" s="7">
+        <v>44770</v>
+      </c>
+      <c r="L211" s="1">
+        <v>17</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N211" s="7">
+        <v>44770</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P211" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q211" s="1">
+        <v>14</v>
+      </c>
+      <c r="R211" s="1">
+        <v>15</v>
+      </c>
+      <c r="S211" s="1">
+        <v>16</v>
+      </c>
+      <c r="T211" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U211" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V211" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22">
       <c r="A212" s="15">
         <v>79</v>
       </c>
@@ -10322,8 +11718,44 @@
       <c r="I212" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="K212" s="7">
+        <v>44768</v>
+      </c>
+      <c r="L212" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N212" s="7">
+        <v>44768</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P212" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q212" s="1">
+        <v>14</v>
+      </c>
+      <c r="R212" s="1">
+        <v>15</v>
+      </c>
+      <c r="S212" s="1">
+        <v>16</v>
+      </c>
+      <c r="T212" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U212" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V212" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="15">
         <v>83</v>
       </c>
@@ -10351,8 +11783,44 @@
       <c r="I213" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="K213" s="7">
+        <v>44770</v>
+      </c>
+      <c r="L213" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N213" s="7">
+        <v>44770</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P213" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q213" s="1">
+        <v>14</v>
+      </c>
+      <c r="R213" s="1">
+        <v>15</v>
+      </c>
+      <c r="S213" s="1">
+        <v>16</v>
+      </c>
+      <c r="T213" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="U213" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V213" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="15">
         <v>104</v>
       </c>
@@ -10380,8 +11848,44 @@
       <c r="I214" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="K214" s="7">
+        <v>44767</v>
+      </c>
+      <c r="L214" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N214" s="7">
+        <v>44767</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P214" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q214" s="1">
+        <v>14</v>
+      </c>
+      <c r="R214" s="1">
+        <v>15</v>
+      </c>
+      <c r="S214" s="1">
+        <v>16</v>
+      </c>
+      <c r="T214" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U214" s="7">
+        <v>44866</v>
+      </c>
+      <c r="V214" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22">
       <c r="A215" s="17">
         <v>128</v>
       </c>
@@ -10409,8 +11913,9 @@
       <c r="I215" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="U215" s="7"/>
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="17">
         <v>130</v>
       </c>
@@ -10438,8 +11943,9 @@
       <c r="I216" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="U216" s="7"/>
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="17">
         <v>132</v>
       </c>
@@ -10468,7 +11974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:22">
       <c r="A218" s="17">
         <v>133</v>
       </c>
@@ -10497,7 +12003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:22">
       <c r="A219" s="17">
         <v>136</v>
       </c>
@@ -10526,7 +12032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:22">
       <c r="A220" s="13">
         <v>315</v>
       </c>
@@ -10555,7 +12061,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:22">
       <c r="A221" s="13">
         <v>316</v>
       </c>
@@ -10584,7 +12090,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:22">
       <c r="A222" s="13">
         <v>217</v>
       </c>
@@ -10613,7 +12119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:22">
       <c r="A223" s="13">
         <v>322</v>
       </c>
@@ -10642,7 +12148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:22">
       <c r="A224" s="13">
         <v>326</v>
       </c>

--- a/TLPR21_Raw_Master.xlsx
+++ b/TLPR21_Raw_Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C364B84E-1EC9-F04A-95C9-27A80E6FA709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A1EC28-3397-5540-B27F-F74BE432D5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23940" windowHeight="13840" xr2:uid="{9F99DBB5-C4DA-A948-85BF-A7F1A69C1BCE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="360">
   <si>
     <t>MISSING</t>
   </si>
@@ -1097,6 +1097,24 @@
   </si>
   <si>
     <t>skeleton_dry_initials</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think 30PP1ML and 45PP1ML got mixed up. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing? </t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there might be 2 of these, 23 ml for the other one. </t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1297,6 +1315,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1611,12 +1632,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFED04EC-AF48-A04F-A9D1-211D7C4EE961}">
-  <dimension ref="A1:V833"/>
+  <dimension ref="A1:AB833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4867,7 +4888,25 @@
       <c r="I88" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J88" s="6"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32">
+        <v>45096</v>
+      </c>
+      <c r="L88" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N88" s="32">
+        <v>45096</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="17">
@@ -4898,6 +4937,24 @@
         <v>8</v>
       </c>
       <c r="J89" s="6"/>
+      <c r="K89" s="7">
+        <v>45089</v>
+      </c>
+      <c r="L89" s="1">
+        <v>15</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N89" s="7">
+        <v>45089</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="17">
@@ -4928,6 +4985,24 @@
         <v>8</v>
       </c>
       <c r="J90" s="6"/>
+      <c r="K90" s="7">
+        <v>45089</v>
+      </c>
+      <c r="L90" s="1">
+        <v>21</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N90" s="7">
+        <v>45089</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="17">
@@ -4958,16 +5033,28 @@
         <v>8</v>
       </c>
       <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
+      <c r="K91" s="10">
+        <v>45089</v>
+      </c>
+      <c r="L91" s="6">
+        <v>25</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N91" s="10">
+        <v>45089</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
+      <c r="T91" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
     </row>
@@ -5000,16 +5087,28 @@
         <v>8</v>
       </c>
       <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
+      <c r="K92" s="10">
+        <v>45089</v>
+      </c>
+      <c r="L92" s="6">
+        <v>25</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N92" s="10">
+        <v>45089</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
+      <c r="T92" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
     </row>
@@ -5042,6 +5141,24 @@
         <v>8</v>
       </c>
       <c r="J93" s="6"/>
+      <c r="K93" s="7">
+        <v>45096</v>
+      </c>
+      <c r="L93" s="1">
+        <v>21</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N93" s="7">
+        <v>45096</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="13">
@@ -5072,6 +5189,24 @@
         <v>8</v>
       </c>
       <c r="J94" s="6"/>
+      <c r="K94" s="7">
+        <v>45083</v>
+      </c>
+      <c r="L94" s="1">
+        <v>35</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N94" s="7">
+        <v>45083</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="13">
@@ -5102,6 +5237,24 @@
         <v>8</v>
       </c>
       <c r="J95" s="6"/>
+      <c r="K95" s="7">
+        <v>45086</v>
+      </c>
+      <c r="L95" s="1">
+        <v>37</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N95" s="7">
+        <v>45086</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="13">
@@ -5132,16 +5285,28 @@
         <v>8</v>
       </c>
       <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
+      <c r="K96" s="7">
+        <v>45083</v>
+      </c>
+      <c r="L96" s="6">
+        <v>19</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N96" s="7">
+        <v>45083</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
+      <c r="T96" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
     </row>
@@ -5174,6 +5339,24 @@
         <v>8</v>
       </c>
       <c r="J97" s="6"/>
+      <c r="K97" s="7">
+        <v>45096</v>
+      </c>
+      <c r="L97" s="1">
+        <v>17</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N97" s="7">
+        <v>45096</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="13">
@@ -5204,6 +5387,24 @@
         <v>8</v>
       </c>
       <c r="J98" s="6"/>
+      <c r="K98" s="7">
+        <v>45089</v>
+      </c>
+      <c r="L98" s="1">
+        <v>35</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N98" s="7">
+        <v>45089</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="13">
@@ -5234,6 +5435,24 @@
         <v>8</v>
       </c>
       <c r="J99" s="6"/>
+      <c r="K99" s="7">
+        <v>45096</v>
+      </c>
+      <c r="L99" s="1">
+        <v>23</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N99" s="7">
+        <v>45096</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="13">
@@ -5264,6 +5483,24 @@
         <v>8</v>
       </c>
       <c r="J100" s="6"/>
+      <c r="K100" s="7">
+        <v>45096</v>
+      </c>
+      <c r="L100" s="1">
+        <v>22</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N100" s="7">
+        <v>45096</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="13">
@@ -5294,6 +5531,24 @@
         <v>8</v>
       </c>
       <c r="J101" s="6"/>
+      <c r="K101" s="10">
+        <v>45096</v>
+      </c>
+      <c r="L101" s="1">
+        <v>20</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N101" s="10">
+        <v>45096</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="13">
@@ -5324,6 +5579,24 @@
         <v>8</v>
       </c>
       <c r="J102" s="6"/>
+      <c r="K102" s="10">
+        <v>45096</v>
+      </c>
+      <c r="L102" s="1">
+        <v>20</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N102" s="10">
+        <v>45096</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="17">
@@ -5354,16 +5627,28 @@
         <v>8</v>
       </c>
       <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
+      <c r="K103" s="32">
+        <v>45086</v>
+      </c>
+      <c r="L103" s="6">
+        <v>39</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="N103" s="32">
+        <v>45086</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
-      <c r="T103" s="6"/>
+      <c r="T103" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
     </row>
@@ -5396,6 +5681,24 @@
         <v>8</v>
       </c>
       <c r="J104" s="6"/>
+      <c r="K104" s="10">
+        <v>45096</v>
+      </c>
+      <c r="L104" s="1">
+        <v>19</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N104" s="10">
+        <v>45096</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="17">
@@ -5426,6 +5729,24 @@
         <v>8</v>
       </c>
       <c r="J105" s="6"/>
+      <c r="K105" s="10">
+        <v>45083</v>
+      </c>
+      <c r="L105" s="1">
+        <v>21</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N105" s="10">
+        <v>45083</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="17">
@@ -5456,16 +5777,28 @@
         <v>8</v>
       </c>
       <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
+      <c r="K106" s="10">
+        <v>45083</v>
+      </c>
+      <c r="L106" s="6">
+        <v>23</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N106" s="10">
+        <v>45083</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="6"/>
+      <c r="T106" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
     </row>
@@ -5498,16 +5831,28 @@
         <v>8</v>
       </c>
       <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
+      <c r="K107" s="32">
+        <v>45089</v>
+      </c>
+      <c r="L107" s="6">
+        <v>25</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N107" s="32">
+        <v>45089</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
-      <c r="T107" s="6"/>
+      <c r="T107" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
     </row>
@@ -5540,6 +5885,24 @@
         <v>8</v>
       </c>
       <c r="J108" s="6"/>
+      <c r="K108" s="7">
+        <v>45082</v>
+      </c>
+      <c r="L108" s="1">
+        <v>17</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N108" s="7">
+        <v>45082</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="15">
@@ -5570,6 +5933,24 @@
         <v>8</v>
       </c>
       <c r="J109" s="6"/>
+      <c r="K109" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L109" s="1">
+        <v>37</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N109" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="15">
@@ -5600,6 +5981,24 @@
         <v>8</v>
       </c>
       <c r="J110" s="6"/>
+      <c r="K110" s="7">
+        <v>45082</v>
+      </c>
+      <c r="L110" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N110" s="7">
+        <v>45082</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="15">
@@ -5630,6 +6029,24 @@
         <v>8</v>
       </c>
       <c r="J111" s="6"/>
+      <c r="K111" s="7">
+        <v>45079</v>
+      </c>
+      <c r="L111" s="1">
+        <v>23</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N111" s="7">
+        <v>45079</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="15">
@@ -5660,16 +6077,28 @@
         <v>8</v>
       </c>
       <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
+      <c r="K112" s="32">
+        <v>45079</v>
+      </c>
+      <c r="L112" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N112" s="32">
+        <v>45079</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
+      <c r="T112" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
     </row>
@@ -5702,6 +6131,24 @@
         <v>8</v>
       </c>
       <c r="J113" s="6"/>
+      <c r="K113" s="7">
+        <v>45083</v>
+      </c>
+      <c r="L113" s="1">
+        <v>23</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N113" s="7">
+        <v>45083</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="15">
@@ -5732,6 +6179,24 @@
         <v>8</v>
       </c>
       <c r="J114" s="6"/>
+      <c r="K114" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L114" s="1">
+        <v>15</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N114" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="15">
@@ -5762,6 +6227,24 @@
         <v>8</v>
       </c>
       <c r="J115" s="6"/>
+      <c r="K115" s="7">
+        <v>45079</v>
+      </c>
+      <c r="L115" s="1">
+        <v>17</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N115" s="7">
+        <v>45079</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T115" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="15">
@@ -5792,6 +6275,24 @@
         <v>8</v>
       </c>
       <c r="J116" s="6"/>
+      <c r="K116" s="7">
+        <v>45083</v>
+      </c>
+      <c r="L116" s="1">
+        <v>20</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N116" s="7">
+        <v>45083</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T116" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="15">
@@ -5822,6 +6323,24 @@
         <v>8</v>
       </c>
       <c r="J117" s="6"/>
+      <c r="K117" s="7">
+        <v>45079</v>
+      </c>
+      <c r="L117" s="1">
+        <v>23</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N117" s="7">
+        <v>45079</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="15">
@@ -5852,6 +6371,24 @@
         <v>8</v>
       </c>
       <c r="J118" s="6"/>
+      <c r="K118" s="7">
+        <v>45079</v>
+      </c>
+      <c r="L118" s="1">
+        <v>37</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N118" s="7">
+        <v>45079</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T118" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="15">
@@ -5882,6 +6419,24 @@
         <v>8</v>
       </c>
       <c r="J119" s="6"/>
+      <c r="K119" s="7">
+        <v>45079</v>
+      </c>
+      <c r="L119" s="1">
+        <v>43</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N119" s="7">
+        <v>45079</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T119" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="15">
@@ -5912,6 +6467,24 @@
         <v>8</v>
       </c>
       <c r="J120" s="6"/>
+      <c r="K120" s="7">
+        <v>45083</v>
+      </c>
+      <c r="L120" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N120" s="7">
+        <v>45083</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T120" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="15">
@@ -5942,6 +6515,24 @@
         <v>8</v>
       </c>
       <c r="J121" s="6"/>
+      <c r="K121" s="7">
+        <v>45082</v>
+      </c>
+      <c r="L121" s="1">
+        <v>25</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N121" s="7">
+        <v>45082</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T121" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="15">
@@ -5972,6 +6563,24 @@
         <v>8</v>
       </c>
       <c r="J122" s="6"/>
+      <c r="K122" s="7">
+        <v>45079</v>
+      </c>
+      <c r="L122" s="1">
+        <v>25</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N122" s="7">
+        <v>45079</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="15">
@@ -6002,6 +6611,24 @@
         <v>8</v>
       </c>
       <c r="J123" s="6"/>
+      <c r="K123" s="7">
+        <v>45082</v>
+      </c>
+      <c r="L123" s="1">
+        <v>17</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N123" s="7">
+        <v>45082</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T123" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="15">
@@ -6032,6 +6659,24 @@
         <v>8</v>
       </c>
       <c r="J124" s="6"/>
+      <c r="K124" s="7">
+        <v>45079</v>
+      </c>
+      <c r="L124" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N124" s="7">
+        <v>45079</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T124" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="15">
@@ -6062,16 +6707,28 @@
         <v>8</v>
       </c>
       <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
+      <c r="K125" s="32">
+        <v>45082</v>
+      </c>
+      <c r="L125" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N125" s="32">
+        <v>45082</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
-      <c r="T125" s="6"/>
+      <c r="T125" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
     </row>
@@ -6104,16 +6761,28 @@
         <v>8</v>
       </c>
       <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
+      <c r="K126" s="32">
+        <v>45079</v>
+      </c>
+      <c r="L126" s="6">
+        <v>20</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N126" s="32">
+        <v>45079</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
-      <c r="T126" s="6"/>
+      <c r="T126" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
     </row>
@@ -6146,6 +6815,24 @@
         <v>8</v>
       </c>
       <c r="J127" s="6"/>
+      <c r="K127" s="7">
+        <v>45082</v>
+      </c>
+      <c r="L127" s="1">
+        <v>22</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N127" s="7">
+        <v>45082</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T127" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="17">
@@ -11440,7 +12127,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="209" spans="1:22">
+    <row r="209" spans="1:28">
       <c r="A209" s="15">
         <v>46</v>
       </c>
@@ -11505,7 +12192,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="210" spans="1:22">
+    <row r="210" spans="1:28">
       <c r="A210" s="15">
         <v>64</v>
       </c>
@@ -11570,7 +12257,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="211" spans="1:22">
+    <row r="211" spans="1:28">
       <c r="A211" s="15">
         <v>68</v>
       </c>
@@ -11635,7 +12322,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="212" spans="1:22">
+    <row r="212" spans="1:28">
       <c r="A212" s="15">
         <v>79</v>
       </c>
@@ -11700,7 +12387,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="213" spans="1:22">
+    <row r="213" spans="1:28">
       <c r="A213" s="15">
         <v>83</v>
       </c>
@@ -11765,7 +12452,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="214" spans="1:22">
+    <row r="214" spans="1:28">
       <c r="A214" s="15">
         <v>104</v>
       </c>
@@ -11830,7 +12517,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:22">
+    <row r="215" spans="1:28">
       <c r="A215" s="17">
         <v>128</v>
       </c>
@@ -11858,9 +12545,27 @@
       <c r="I215" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="K215" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L215" s="1">
+        <v>16</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N215" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T215" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="U215" s="7"/>
     </row>
-    <row r="216" spans="1:22">
+    <row r="216" spans="1:28">
       <c r="A216" s="17">
         <v>130</v>
       </c>
@@ -11888,9 +12593,27 @@
       <c r="I216" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="K216" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L216" s="1">
+        <v>15</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N216" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T216" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="U216" s="7"/>
     </row>
-    <row r="217" spans="1:22">
+    <row r="217" spans="1:28">
       <c r="A217" s="17">
         <v>132</v>
       </c>
@@ -11918,8 +12641,26 @@
       <c r="I217" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:22">
+      <c r="K217" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L217" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N217" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T217" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28">
       <c r="A218" s="17">
         <v>133</v>
       </c>
@@ -11947,8 +12688,26 @@
       <c r="I218" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:22">
+      <c r="K218" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L218" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N218" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T218" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28">
       <c r="A219" s="17">
         <v>136</v>
       </c>
@@ -11976,8 +12735,26 @@
       <c r="I219" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:22">
+      <c r="K219" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L219" s="1">
+        <v>15</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N219" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T219" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28">
       <c r="A220" s="13">
         <v>315</v>
       </c>
@@ -12005,8 +12782,26 @@
       <c r="I220" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:22">
+      <c r="K220" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L220" s="1">
+        <v>27</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N220" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T220" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="221" spans="1:28">
       <c r="A221" s="13">
         <v>316</v>
       </c>
@@ -12034,8 +12829,62 @@
       <c r="I221" s="25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="222" spans="1:22">
+      <c r="K221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="N221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="O221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="R221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="S221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="T221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="U221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="V221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="W221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="X221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA221" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB221" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28">
       <c r="A222" s="13">
         <v>217</v>
       </c>
@@ -12063,8 +12912,26 @@
       <c r="I222" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:22">
+      <c r="K222" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L222" s="1">
+        <v>19</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N222" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T222" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="223" spans="1:28">
       <c r="A223" s="13">
         <v>322</v>
       </c>
@@ -12092,8 +12959,26 @@
       <c r="I223" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:22">
+      <c r="K223" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L223" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N223" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T223" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:28">
       <c r="A224" s="13">
         <v>326</v>
       </c>
@@ -12121,8 +13006,26 @@
       <c r="I224" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="K224" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L224" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N224" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T224" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
       <c r="A225" s="13">
         <v>336</v>
       </c>
@@ -12150,8 +13053,26 @@
       <c r="I225" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="K225" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L225" s="1">
+        <v>23</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N225" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T225" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
       <c r="A226" s="13">
         <v>340</v>
       </c>
@@ -12179,8 +13100,26 @@
       <c r="I226" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="K226" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L226" s="1">
+        <v>21</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N226" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T226" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
       <c r="A227" s="13">
         <v>351</v>
       </c>
@@ -12208,8 +13147,26 @@
       <c r="I227" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="K227" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L227" s="1">
+        <v>15</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N227" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T227" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
       <c r="A228" s="13">
         <v>354</v>
       </c>
@@ -12237,8 +13194,26 @@
       <c r="I228" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="K228" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L228" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N228" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T228" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
       <c r="A229" s="13">
         <v>360</v>
       </c>
@@ -12266,8 +13241,26 @@
       <c r="I229" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="K229" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L229" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N229" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T229" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
       <c r="A230" s="17">
         <v>167</v>
       </c>
@@ -12295,8 +13288,26 @@
       <c r="I230" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="K230" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L230" s="1">
+        <v>25</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N230" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T230" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
       <c r="A231" s="17">
         <v>172</v>
       </c>
@@ -12324,8 +13335,26 @@
       <c r="I231" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="K231" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L231" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N231" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T231" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
       <c r="A232" s="17">
         <v>178</v>
       </c>
@@ -12353,8 +13382,26 @@
       <c r="I232" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="K232" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L232" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N232" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T232" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
       <c r="A233" s="17">
         <v>184</v>
       </c>
@@ -12382,8 +13429,26 @@
       <c r="I233" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="K233" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L233" s="1">
+        <v>33</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N233" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T233" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27">
       <c r="A234" s="17">
         <v>186</v>
       </c>
@@ -12411,8 +13476,26 @@
       <c r="I234" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="K234" s="7">
+        <v>45077</v>
+      </c>
+      <c r="L234" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N234" s="7">
+        <v>45077</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T234" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27">
       <c r="A235" s="15">
         <v>3</v>
       </c>
@@ -12440,8 +13523,26 @@
       <c r="I235" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="K235" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L235" s="1">
+        <v>13</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N235" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27">
       <c r="A236" s="15">
         <v>3</v>
       </c>
@@ -12469,8 +13570,26 @@
       <c r="I236" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="K236" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L236" s="1">
+        <v>16</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N236" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27">
       <c r="A237" s="15">
         <v>202</v>
       </c>
@@ -12498,8 +13617,26 @@
       <c r="I237" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="K237" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L237" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N237" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T237" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27">
       <c r="A238" s="15">
         <v>204</v>
       </c>
@@ -12527,8 +13664,26 @@
       <c r="I238" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="K238" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L238" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N238" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T238" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27">
       <c r="A239" s="15">
         <v>205</v>
       </c>
@@ -12556,8 +13711,26 @@
       <c r="I239" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="K239" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L239" s="1">
+        <v>19</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N239" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T239" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27">
       <c r="A240" s="15">
         <v>451</v>
       </c>
@@ -12585,8 +13758,59 @@
       <c r="I240" s="25" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="K240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="R240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="S240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="T240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="U240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="V240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="W240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="X240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z240" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA240" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20">
       <c r="A241" s="15" t="s">
         <v>275</v>
       </c>
@@ -12614,8 +13838,26 @@
       <c r="I241" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="K241" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L241" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N241" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T241" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" s="15" t="s">
         <v>277</v>
       </c>
@@ -12643,8 +13885,26 @@
       <c r="I242" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="K242" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L242" s="1">
+        <v>18</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N242" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20">
       <c r="A243" s="15">
         <v>110</v>
       </c>
@@ -12672,8 +13932,26 @@
       <c r="I243" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="K243" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L243" s="1">
+        <v>17</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N243" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20">
       <c r="A244" s="15">
         <v>255</v>
       </c>
@@ -12701,8 +13979,26 @@
       <c r="I244" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="K244" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L244" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N244" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T244" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20">
       <c r="A245" s="15">
         <v>256</v>
       </c>
@@ -12730,8 +14026,26 @@
       <c r="I245" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="K245" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L245" s="1">
+        <v>27</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N245" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T245" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20">
       <c r="A246" s="15">
         <v>19</v>
       </c>
@@ -12759,8 +14073,26 @@
       <c r="I246" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="K246" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L246" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N246" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T246" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20">
       <c r="A247" s="15">
         <v>22</v>
       </c>
@@ -12788,8 +14120,26 @@
       <c r="I247" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="K247" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L247" s="1">
+        <v>23</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N247" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20">
       <c r="A248" s="15">
         <v>33</v>
       </c>
@@ -12817,8 +14167,26 @@
       <c r="I248" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="K248" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L248" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N248" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T248" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20">
       <c r="A249" s="15">
         <v>38</v>
       </c>
@@ -12846,8 +14214,26 @@
       <c r="I249" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="K249" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L249" s="1">
+        <v>23</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N249" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T249" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20">
       <c r="A250" s="15">
         <v>49</v>
       </c>
@@ -12875,8 +14261,26 @@
       <c r="I250" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="K250" s="7">
+        <v>44349</v>
+      </c>
+      <c r="L250" s="1">
+        <v>30</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N250" s="7">
+        <v>44349</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T250" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" s="15">
         <v>51</v>
       </c>
@@ -12904,8 +14308,26 @@
       <c r="I251" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="K251" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L251" s="1">
+        <v>17</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N251" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20">
       <c r="A252" s="15">
         <v>58</v>
       </c>
@@ -12933,8 +14355,26 @@
       <c r="I252" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="K252" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L252" s="1">
+        <v>40</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N252" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T252" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20">
       <c r="A253" s="15">
         <v>70</v>
       </c>
@@ -12962,8 +14402,26 @@
       <c r="I253" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="K253" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L253" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N253" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20">
       <c r="A254" s="15">
         <v>74</v>
       </c>
@@ -12991,8 +14449,26 @@
       <c r="I254" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="K254" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L254" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N254" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T254" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20">
       <c r="A255" s="15">
         <v>76</v>
       </c>
@@ -13020,8 +14496,26 @@
       <c r="I255" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="K255" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L255" s="1">
+        <v>24</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N255" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20">
       <c r="A256" s="15">
         <v>280</v>
       </c>
@@ -13049,8 +14543,26 @@
       <c r="I256" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="K256" s="7">
+        <v>45078</v>
+      </c>
+      <c r="L256" s="1">
+        <v>17</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N256" s="7">
+        <v>45078</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T256" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="257" spans="1:28">
       <c r="A257" s="17">
         <v>129</v>
       </c>
@@ -13078,8 +14590,26 @@
       <c r="I257" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="K257" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L257" s="1">
+        <v>15</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N257" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="258" spans="1:28">
       <c r="A258" s="17">
         <v>131</v>
       </c>
@@ -13107,8 +14637,26 @@
       <c r="I258" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="K258" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L258" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N258" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="259" spans="1:28">
       <c r="A259" s="17">
         <v>135</v>
       </c>
@@ -13136,8 +14684,26 @@
       <c r="I259" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="K259" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L259" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="M259" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N259" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T259" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="260" spans="1:28">
       <c r="A260" s="17">
         <v>137</v>
       </c>
@@ -13165,8 +14731,26 @@
       <c r="I260" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="K260" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L260" s="1">
+        <v>15</v>
+      </c>
+      <c r="M260" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N260" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="261" spans="1:28">
       <c r="A261" s="17">
         <v>138</v>
       </c>
@@ -13194,8 +14778,26 @@
       <c r="I261" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="K261" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L261" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N261" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T261" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="262" spans="1:28">
       <c r="A262" s="13">
         <v>314</v>
       </c>
@@ -13221,10 +14823,65 @@
         <v>292</v>
       </c>
       <c r="I262" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
+        <v>358</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="N262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="O262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="R262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="S262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="T262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="U262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="V262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="W262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="X262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA262" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB262" s="7"/>
+    </row>
+    <row r="263" spans="1:28">
       <c r="A263" s="13">
         <v>319</v>
       </c>
@@ -13252,8 +14909,26 @@
       <c r="I263" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="K263" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L263" s="1">
+        <v>16</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N263" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T263" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="264" spans="1:28">
       <c r="A264" s="13">
         <v>215</v>
       </c>
@@ -13281,8 +14956,26 @@
       <c r="I264" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="K264" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L264" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N264" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="265" spans="1:28">
       <c r="A265" s="13">
         <v>219</v>
       </c>
@@ -13310,8 +15003,26 @@
       <c r="I265" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="K265" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L265" s="1">
+        <v>14</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N265" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T265" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="266" spans="1:28">
       <c r="A266" s="13">
         <v>324</v>
       </c>
@@ -13339,8 +15050,26 @@
       <c r="I266" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="K266" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L266" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N266" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="267" spans="1:28">
       <c r="A267" s="13">
         <v>341</v>
       </c>
@@ -13368,8 +15097,29 @@
       <c r="I267" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="J267" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K267" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L267" s="1">
+        <v>23</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N267" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="268" spans="1:28">
       <c r="A268" s="13">
         <v>346</v>
       </c>
@@ -13397,8 +15147,26 @@
       <c r="I268" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="K268" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L268" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N268" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T268" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="269" spans="1:28">
       <c r="A269" s="13">
         <v>349</v>
       </c>
@@ -13426,8 +15194,26 @@
       <c r="I269" s="19" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="K269" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L269" s="1">
+        <v>16</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N269" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T269" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="270" spans="1:28">
       <c r="A270" s="13">
         <v>365</v>
       </c>
@@ -13455,8 +15241,26 @@
       <c r="I270" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="K270" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L270" s="1">
+        <v>15</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N270" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T270" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="271" spans="1:28">
       <c r="A271" s="13">
         <v>370</v>
       </c>
@@ -13484,8 +15288,26 @@
       <c r="I271" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="K271" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L271" s="1">
+        <v>20</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N271" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="272" spans="1:28">
       <c r="A272" s="17">
         <v>162</v>
       </c>
@@ -13513,8 +15335,26 @@
       <c r="I272" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="K272" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L272" s="1">
+        <v>14</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N272" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20">
       <c r="A273" s="17">
         <v>165</v>
       </c>
@@ -13542,8 +15382,26 @@
       <c r="I273" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="K273" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L273" s="1">
+        <v>15</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N273" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T273" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20">
       <c r="A274" s="17">
         <v>169</v>
       </c>
@@ -13571,8 +15429,26 @@
       <c r="I274" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="K274" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L274" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N274" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T274" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20">
       <c r="A275" s="17">
         <v>174</v>
       </c>
@@ -13600,8 +15476,26 @@
       <c r="I275" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="K275" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L275" s="1">
+        <v>15</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N275" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T275" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20">
       <c r="A276" s="17">
         <v>179</v>
       </c>
@@ -13629,8 +15523,26 @@
       <c r="I276" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="K276" s="7">
+        <v>45076</v>
+      </c>
+      <c r="L276" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N276" s="7">
+        <v>45076</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T276" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20">
       <c r="A277" s="15">
         <v>9</v>
       </c>
@@ -13658,8 +15570,26 @@
       <c r="I277" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="K277" s="7">
+        <v>44964</v>
+      </c>
+      <c r="L277" s="1">
+        <v>23</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N277" s="7">
+        <v>44964</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T277" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20">
       <c r="A278" s="15">
         <v>9</v>
       </c>
@@ -13687,8 +15617,26 @@
       <c r="I278" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="K278" s="7">
+        <v>44980</v>
+      </c>
+      <c r="L278" s="1">
+        <v>20</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N278" s="7">
+        <v>44980</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T278" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20">
       <c r="A279" s="15">
         <v>203</v>
       </c>
@@ -13716,8 +15664,29 @@
       <c r="I279" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="J279" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K279" s="7">
+        <v>44964</v>
+      </c>
+      <c r="L279" s="1">
+        <v>26</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N279" s="7">
+        <v>44964</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T279" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
       <c r="A280" s="15">
         <v>209</v>
       </c>
@@ -13745,8 +15714,26 @@
       <c r="I280" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="K280" s="7">
+        <v>44984</v>
+      </c>
+      <c r="L280" s="1">
+        <v>28</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N280" s="7">
+        <v>44984</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T280" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
       <c r="A281" s="15">
         <v>262</v>
       </c>
@@ -13774,8 +15761,26 @@
       <c r="I281" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="K281" s="7">
+        <v>44984</v>
+      </c>
+      <c r="L281" s="1">
+        <v>20</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N281" s="7">
+        <v>44984</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T281" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20">
       <c r="A282" s="15">
         <v>267</v>
       </c>
@@ -13803,8 +15808,26 @@
       <c r="I282" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="283" spans="1:9">
+      <c r="K282" s="7">
+        <v>44974</v>
+      </c>
+      <c r="L282" s="1">
+        <v>16</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N282" s="7">
+        <v>44974</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T282" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
       <c r="A283" s="15">
         <v>90</v>
       </c>
@@ -13832,8 +15855,26 @@
       <c r="I283" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="284" spans="1:9">
+      <c r="K283" s="7">
+        <v>44974</v>
+      </c>
+      <c r="L283" s="1">
+        <v>17</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N283" s="7">
+        <v>44974</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T283" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20">
       <c r="A284" s="15" t="s">
         <v>325</v>
       </c>
@@ -13861,8 +15902,26 @@
       <c r="I284" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="285" spans="1:9">
+      <c r="K284" s="7">
+        <v>44980</v>
+      </c>
+      <c r="L284" s="1">
+        <v>26</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N284" s="7">
+        <v>44980</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T284" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20">
       <c r="A285" s="15" t="s">
         <v>323</v>
       </c>
@@ -13890,8 +15949,26 @@
       <c r="I285" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="286" spans="1:9">
+      <c r="K285" s="7">
+        <v>44995</v>
+      </c>
+      <c r="L285" s="1">
+        <v>39</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N285" s="7">
+        <v>44995</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T285" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20">
       <c r="A286" s="15">
         <v>109</v>
       </c>
@@ -13919,8 +15996,26 @@
       <c r="I286" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="287" spans="1:9">
+      <c r="K286" s="7">
+        <v>44984</v>
+      </c>
+      <c r="L286" s="1">
+        <v>40</v>
+      </c>
+      <c r="M286" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N286" s="7">
+        <v>44984</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T286" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
       <c r="A287" s="15">
         <v>113</v>
       </c>
@@ -13948,8 +16043,26 @@
       <c r="I287" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="K287" s="7">
+        <v>44974</v>
+      </c>
+      <c r="L287" s="1">
+        <v>20</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N287" s="7">
+        <v>44974</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T287" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20">
       <c r="A288" s="15">
         <v>17</v>
       </c>
@@ -13977,8 +16090,26 @@
       <c r="I288" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="K288" s="7">
+        <v>44980</v>
+      </c>
+      <c r="L288" s="1">
+        <v>15</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N288" s="7">
+        <v>44980</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T288" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20">
       <c r="A289" s="15">
         <v>32</v>
       </c>
@@ -14006,8 +16137,26 @@
       <c r="I289" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="K289" s="7">
+        <v>44980</v>
+      </c>
+      <c r="L289" s="1">
+        <v>25</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N289" s="7">
+        <v>44980</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T289" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
       <c r="A290" s="15">
         <v>36</v>
       </c>
@@ -14035,8 +16184,26 @@
       <c r="I290" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="K290" s="7">
+        <v>44995</v>
+      </c>
+      <c r="L290" s="1">
+        <v>20</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N290" s="7">
+        <v>44995</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T290" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20">
       <c r="A291" s="15">
         <v>37</v>
       </c>
@@ -14064,8 +16231,26 @@
       <c r="I291" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="K291" s="7">
+        <v>44974</v>
+      </c>
+      <c r="L291" s="1">
+        <v>16</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N291" s="7">
+        <v>44974</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T291" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20">
       <c r="A292" s="15">
         <v>41</v>
       </c>
@@ -14093,8 +16278,26 @@
       <c r="I292" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="293" spans="1:9">
+      <c r="K292" s="7">
+        <v>45094</v>
+      </c>
+      <c r="L292" s="1">
+        <v>20</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N292" s="7">
+        <v>45094</v>
+      </c>
+      <c r="O292" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T292" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20">
       <c r="A293" s="15">
         <v>44</v>
       </c>
@@ -14122,8 +16325,26 @@
       <c r="I293" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="294" spans="1:9">
+      <c r="K293" s="7">
+        <v>44995</v>
+      </c>
+      <c r="L293" s="1">
+        <v>17</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N293" s="7">
+        <v>44995</v>
+      </c>
+      <c r="O293" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T293" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20">
       <c r="A294" s="15">
         <v>47</v>
       </c>
@@ -14151,8 +16372,26 @@
       <c r="I294" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="295" spans="1:9">
+      <c r="K294" s="7">
+        <v>44964</v>
+      </c>
+      <c r="L294" s="1">
+        <v>34</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N294" s="7">
+        <v>44964</v>
+      </c>
+      <c r="O294" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T294" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20">
       <c r="A295" s="15">
         <v>57</v>
       </c>
@@ -14180,8 +16419,26 @@
       <c r="I295" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="296" spans="1:9">
+      <c r="K295" s="7">
+        <v>44974</v>
+      </c>
+      <c r="L295" s="1">
+        <v>25</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N295" s="7">
+        <v>44974</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T295" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20">
       <c r="A296" s="15">
         <v>63</v>
       </c>
@@ -14209,8 +16466,26 @@
       <c r="I296" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="297" spans="1:9">
+      <c r="K296" s="7">
+        <v>44977</v>
+      </c>
+      <c r="L296" s="1">
+        <v>26</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N296" s="7">
+        <v>44977</v>
+      </c>
+      <c r="O296" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T296" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20">
       <c r="A297" s="15">
         <v>82</v>
       </c>
@@ -14238,8 +16513,26 @@
       <c r="I297" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="K297" s="7">
+        <v>44995</v>
+      </c>
+      <c r="L297" s="1">
+        <v>26</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N297" s="7">
+        <v>44995</v>
+      </c>
+      <c r="O297" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T297" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20">
       <c r="A298" s="15">
         <v>86</v>
       </c>
@@ -14267,8 +16560,26 @@
       <c r="I298" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="K298" s="7">
+        <v>44974</v>
+      </c>
+      <c r="L298" s="1">
+        <v>18</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N298" s="7">
+        <v>44974</v>
+      </c>
+      <c r="O298" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T298" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20">
       <c r="A299" s="15">
         <v>88</v>
       </c>
@@ -14296,8 +16607,26 @@
       <c r="I299" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="300" spans="1:9">
+      <c r="K299" s="7">
+        <v>44974</v>
+      </c>
+      <c r="L299" s="1">
+        <v>16</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N299" s="7">
+        <v>44974</v>
+      </c>
+      <c r="O299" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T299" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20">
       <c r="A300" s="15">
         <v>89</v>
       </c>
@@ -14325,8 +16654,26 @@
       <c r="I300" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="301" spans="1:9">
+      <c r="K300" s="7">
+        <v>44964</v>
+      </c>
+      <c r="L300" s="1">
+        <v>34</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N300" s="7">
+        <v>44964</v>
+      </c>
+      <c r="O300" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T300" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20">
       <c r="A301" s="15">
         <v>107</v>
       </c>
@@ -14354,14 +16701,32 @@
       <c r="I301" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="302" spans="1:9">
+      <c r="K301" s="7">
+        <v>44995</v>
+      </c>
+      <c r="L301" s="1">
+        <v>15</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N301" s="7">
+        <v>44995</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="T301" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20">
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:20">
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:20">
       <c r="G304" s="12"/>
     </row>
     <row r="305" spans="7:7">
